--- a/finetuning/it_datasets/qa_dataset/qa_it_kebili_dataset.xlsx
+++ b/finetuning/it_datasets/qa_dataset/qa_it_kebili_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA29"/>
+  <dimension ref="A1:AB29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,7 +561,12 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>question</t>
+          <t>plan</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>choices</t>
         </is>
       </c>
     </row>
@@ -667,12 +672,57 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>If you're in Kebili and looking for a great place to eat, check out Bon Gusto located at C206. This top-rated restaurant is perfect for food lovers and offers a range of dishes to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 09:00-01:00. To get there, use these GPS coordinates: 33.7080489, 8.9715127. For more details, call them at 22 900 717.</t>
+          <t>Bon Gusto is a restaurant located in Kebili, Tunisia. It offers a wide range of dishes, including traditional Tunisian cuisine and international fare. The restaurant is open from 9am to 1am, and is closed on Sundays. Bon Gusto is conveniently located near the city center, and is easily accessible by public transportation.</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>Where in Kebili can you find the top-rated restaurant, Bon Gusto, with a 4.2 rating and a wide variety of dishes?</t>
+          <t>Day Plan:
+Morning: Exploring Ancienne Kebili, an archaeological site showcasing the region's rich history.
+Mid-Morning: Trying local cuisine at Restaurant Paradisio, a highly-rated eatery with a cozy ambiance.
+Midday: Visiting Oasis de Kebili, a verdant agricultural oasis offering respite from the desert's arid landscape.
+Afternoon: Participating in outdoor activities at Les Amis du Camping, where you can enjoy the great outdoors while camping or staying in bungalows.
+Evening: Enjoying dinner at Anasini Siktigimin Restorani, a highly-rated Turkish restaurant serving delicious food in a warm setting.
+Night: Experiencing cultural immersion at Garden Coffee, a popular cafe known for its welcoming atmosphere and variety of teas.</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant PARADISIO is a highly-rated restaurant located in Kebili with a 4.2-star rating. It is open from 9:00 AM to 10:00 PM Monday through Saturday, but is closed on Sundays. The restaurant's primary category is Restaurant and its coordinates are (49.1407729, 6.8074876).
+Garden Coffee, located at PX49+769, P16, Kebili (33.7053164, 8.9659272), is a popular cafe offering a cozy and welcoming atmosphere for coffee lovers and those seeking a relaxing ambiance.
+THE HOUSE is a tea room located at Kebili (8.9659272, 33.7053164), offering a cozy ambiance and a wide variety of teas.
+Fast food mohedinne is a restaurant located in Kebili, Tunisia. It offers Tunisian cuisine and is highly rated by customers, with a 4.5/5 rating from 2 reviews.
+The restaurant is open 24/7 and can be reached at 23 587 037. It is located at the following address: Fast food mohedinne, 4200, Kebili 4200.
+Upfood Kebili, a fast-food restaurant located in Kebili, offers a range of quick and convenient meals. Its precise location is at 33.702780775761 latitude and 8.971607490048 longitude.
+Les Amis du Camping is a campground located in Kebili, Tunisia. It offers a range of accommodations, including bungalows and campsites, and has a 4.7-star rating on Google. The campground is located at coordinates (33.699475328016, 8.966757671246) and is open year-round.
+Nestled in the heart of the Tunisian desert, Oasis de Kebili is a verdant paradise that serves as a refuge from the surrounding arid landscapes. This agricultural oasis boasts a vibrant ecosystem, showcasing the natural beauty and resilience of the region. Its convenient location, within the city of Kebili, makes it easily accessible to those seeking respite and tranquility amidst the unforgiving terrain.
+Ancienne Kebili is an archeological site located in Kebili, Tunisia. Situated at the coordinates (33.7053164, 8.9659272), it offers visitors the opportunity to explore the rich history and culture of the region. The site boasts 3 reviews, with an average rating of 3.7 reflecting its popularity among travelers.
+Located in Kebili, Anasini Siktigimin Restorani is a highly-rated Turkish restaurant offering delicious food and a warm ambiance. The restaurant is open 24 hours a day and offers a cozy and comfortable dining experience. Whether you're craving traditional Turkish dishes or looking for a casual meal, Anasini Siktigimin Restorani is a great option.
+Pizzaria Olivier is a pizzeria located in Kebili, Tunisia. The pizzeria is open from 9:30am to 10:30pm and is closed on none. Pizzaria Olivier has a rating of 4.0 out of 5 on Google and has received 5 reviews. The pizzeria's featured image is a photo of the exterior of the building and the main category is Pizzeria. The pizzeria's website is not available. The pizzeria's owner is not available. The pizzeria's phone number is 99 102 203 and the address is PX49+65G Pizzaria Olivier, Kebili. The pizzeria's coordinates are (33.7053164, 8.9659272).
+The Station Nationale Louage is a transport service located at PX8F+QR6, Kebili, Tunisia. It is characterized by its rating of 4.0 out of 5, garnered from four reviews. Situated at the coordinates (33.7053164, 8.9659272), this station's services and amenities, as well as its precise location, make it a significant point of interest within the Kebili region.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -778,12 +828,56 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>If you're in Kebili and looking for a great meal, check out Restaurant PARADISIO located at PX4C+WVV Kebili. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 09:00-22:00, but closed on Sunday. To get there, use these GPS coordinates: 49.1407729, 6.8074876.</t>
+          <t>Restaurant PARADISIO is a highly-rated restaurant located in Kebili with a 4.2-star rating. It is open from 9:00 AM to 10:00 PM Monday through Saturday, but is closed on Sundays. The restaurant's primary category is Restaurant and its coordinates are (49.1407729, 6.8074876).</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Restaurant with a variety of options, located near Kebili?</t>
+          <t>Day Plan:
+Morning: Exploring Ancienne Kebili, an archaeological site with rich historical significance.
+Mid-Morning: Trying local cuisine at Bon Gusto, a restaurant offering a diverse menu featuring both traditional Tunisian and international dishes.
+Midday: Visiting Oasis de Kebili, a verdant agricultural oasis offering a serene escape from the surrounding desert landscapes.
+Afternoon: Enjoying a relaxing and cozy atmosphere while sipping coffee at Cafe Bayka, a 5-star rated cafe.
+Evening: Experiencing the vibrant local culture at Les Amis du Camping, a campground with excellent ratings and a range of accommodations.
+Night: Indulging in a delicious Turkish dining experience at Anasini Siktigimin Restorani, renowned for its authentic food and warm ambiance.</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Bon Gusto is a restaurant located in Kebili, Tunisia. It offers a wide range of dishes, including traditional Tunisian cuisine and international fare. The restaurant is open from 9am to 1am, and is closed on Sundays. Bon Gusto is conveniently located near the city center, and is easily accessible by public transportation.
+**Cafe Bayka** is a 5-star rated cafe located in kebili with the coordinates (33.7053164, 8.9659272). It offers a wide range of services and amenities, including but not limited to: free Wi-Fi, air conditioning, and a cozy atmosphere. It is the perfect place to relax and enjoy a hot cup of coffee with friends.
+THE HOUSE is a tea room located at Kebili (8.9659272, 33.7053164), offering a cozy ambiance and a wide variety of teas.
+Fast food mohedinne is a Tunisian restaurant located in Kebili, Tunisia. It is open 24 hours a day and has a rating of 4.5 stars. The restaurant offers a variety of Tunisian dishes, and is located at 33.6915496, 9.0030868.
+Upfood Kebili, a fast-food restaurant located in Kebili, offers a range of quick and convenient meals. Its precise location is at 33.702780775761 latitude and 8.971607490048 longitude.
+Les Amis du Camping is a campground located in Kebili, Tunisia. It offers a range of accommodations, including bungalows and campsites, and has a 4.7-star rating on Google. The campground is located at coordinates (33.699475328016, 8.966757671246) and is open year-round.
+Nestled in the heart of the Tunisian desert, Oasis de Kebili is a verdant paradise that serves as a refuge from the surrounding arid landscapes. This agricultural oasis boasts a vibrant ecosystem, showcasing the natural beauty and resilience of the region. Its convenient location, within the city of Kebili, makes it easily accessible to those seeking respite and tranquility amidst the unforgiving terrain.
+Ancienne Kebili is an archeological site located in Kebili, Tunisia. Situated at the coordinates (33.7053164, 8.9659272), it offers visitors the opportunity to explore the rich history and culture of the region. The site boasts 3 reviews, with an average rating of 3.7 reflecting its popularity among travelers.
+Located in Kebili, Anasini Siktigimin Restorani is a highly-rated Turkish restaurant offering delicious food and a warm ambiance. The restaurant is open 24 hours a day and offers a cozy and comfortable dining experience. Whether you're craving traditional Turkish dishes or looking for a casual meal, Anasini Siktigimin Restorani is a great option.
+Pizzaria Olivier is a pizzeria located in Kebili, Tunisia. The pizzeria is open from 9:30am to 10:30pm and is closed on none. Pizzaria Olivier has a rating of 4.0 out of 5 on Google and has received 5 reviews. The pizzeria's featured image is a photo of the exterior of the building and the main category is Pizzeria. The pizzeria's website is not available. The pizzeria's owner is not available. The pizzeria's phone number is 99 102 203 and the address is PX49+65G Pizzaria Olivier, Kebili. The pizzeria's coordinates are (33.7053164, 8.9659272).
+Station Nationale Louage Kebili is a transport service located in Kebili, Tunisia. It is situated at the coordinates (33.7053164, 8.9659272) and has a 4.0 rating out of 4 reviews. The phone number for the station is 75 491 213 and its address is PX8F+QR6 Station Nationale Louage Kebili, Kebili.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -885,14 +979,56 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>If you're in kebili and looking for something fun to do, check out Le theatre cafe-resto located at PX2G+9JW, C206, Kebili. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe categories to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.7053164, 8.9659272. For more details, visit their website at https://www.google.com/maps/place/Le+th%C3%A9%C3%A2tre+caf%C3%A9-resto/data=!4m7!3m6!1s0x12566fec2cd66211:0x70dbf982b7a87209!8m2!3d33.7009911!4d8.97659!16s%2Fg%2F11ljw3flj8!19sChIJEWLWLOxvVhIRCXKot4L523A?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 55 987 094.</t>
+          <t>Le theatre cafe-resto is located in Kebili, Tunisia at longitude 8.9659272 and latitude 33.7053164. It has a rating of 4.0 and offers cafe services. The phone number is 55 987 094.</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>Where in Kebili can you find a top-rated cafe with a 4.0 rating and a wide range of cafe options?</t>
+          <t>Day Plan:
+Morning: Explore the ancient archeological site of Ancienne Kebili for a glimpse into the region's rich history and culture.
+Mid-Morning: Visit Oasis de Kebili, a verdant paradise in the heart of the Tunisian desert, and appreciate the natural beauty and resilience of the region.
+Midday: Delight in a traditional Turkish dining experience at the highly-rated Anasini Siktigimin Restorani, known for its delicious food and warm ambiance.
+Afternoon: Take a scenic stroll through the bustling streets of Kebili, discovering hidden gems and enjoying the vibrant local culture.
+Evening: Immerse yourself in the lively atmosphere at Bon Gusto, a local restaurant offering a delightful dining experience with a 4.2-star rating and positive reviews.
+Night: Unwind at Les Amis du Camping, a campground with a 4.7-star rating, where you can relax under the stars and enjoy the serenity of the surroundings.</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Bon Gusto is a restaurant located in Kebili, Tunisia, offering a delightful dining experience to its customers. It is situated at the coordinates (33.7080489, 8.9715127). The restaurant has received positive reviews, earning a rating of 4.2 out of 5 based on 44 reviews. Its primary category is Restaurant.
+Garden Coffee, located at PX49+769, P16, Kebili (33.7053164, 8.9659272), is a popular cafe offering a cozy and welcoming atmosphere for coffee lovers and those seeking a relaxing ambiance.
+THE HOUSE is a tea room located at Kebili (8.9659272, 33.7053164), offering a cozy ambiance and a wide variety of teas.
+Fast food mohedinne is a Tunisian restaurant located in Kebili, Tunisia. It is open 24 hours a day and has a rating of 4.5 stars. The restaurant offers a variety of Tunisian dishes, and is located at 33.6915496, 9.0030868.
+Upfood Kebili is a fast-food restaurant located in Kebili, Tunisia. It is known for its 5-star rating and its wide variety of fast-food options. The restaurant is located at the coordinates (33.702780775761, 8.971607490048), on Rue de la liberte.
+Les Amis du Camping is a campground located in Kebili, Tunisia. It offers a range of accommodations, including bungalows and campsites, and has a 4.7-star rating on Google. The campground is located at coordinates (33.699475328016, 8.966757671246) and is open year-round.
+Nestled in the heart of the Tunisian desert, Oasis de Kebili is a verdant paradise that serves as a refuge from the surrounding arid landscapes. This agricultural oasis boasts a vibrant ecosystem, showcasing the natural beauty and resilience of the region. Its convenient location, within the city of Kebili, makes it easily accessible to those seeking respite and tranquility amidst the unforgiving terrain.
+Ancienne Kebili is an archeological site located in Kebili, Tunisia. Situated at the coordinates (33.7053164, 8.9659272), it offers visitors the opportunity to explore the rich history and culture of the region. The site boasts 3 reviews, with an average rating of 3.7 reflecting its popularity among travelers.
+Located in Kebili, Anasini Siktigimin Restorani is a highly-rated Turkish restaurant offering delicious food and a warm ambiance. The restaurant is open 24 hours a day and offers a cozy and comfortable dining experience. Whether you're craving traditional Turkish dishes or looking for a casual meal, Anasini Siktigimin Restorani is a great option.
+Pizzaria Olivier is a pizzeria located in Kebili, Tunisia. The pizzeria is open from 9:30am to 10:30pm and is closed on none. Pizzaria Olivier has a rating of 4.0 out of 5 on Google and has received 5 reviews. The pizzeria's featured image is a photo of the exterior of the building and the main category is Pizzeria. The pizzeria's website is not available. The pizzeria's owner is not available. The pizzeria's phone number is 99 102 203 and the address is PX49+65G Pizzaria Olivier, Kebili. The pizzeria's coordinates are (33.7053164, 8.9659272).
+The Station Nationale Louage is a transport service located at PX8F+QR6, Kebili, Tunisia. It is characterized by its rating of 4.0 out of 5, garnered from four reviews. Situated at the coordinates (33.7053164, 8.9659272), this station's services and amenities, as well as its precise location, make it a significant point of interest within the Kebili region.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -994,12 +1130,57 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>If you're in Kebili and looking for a delightful place to relax, visit THE HOUSE, located at PX4C+W6H, Kebili. This popular teahouse has a rating of 4.0, making it a highly recommended destination. It's open daily from 08:00-23:00, providing ample time to unwind and enjoy their offerings. For more information, visit the GPS coordinates (33.7053164, 8.9659272).</t>
+          <t>THE HOUSE is a tea room located at Kebili (8.9659272, 33.7053164), offering a cozy ambiance and a wide variety of teas.</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>Where can you find a highly recommended teahouse with a 4.0 rating, open daily from 8 AM to 11 PM, in the city of Kebili?</t>
+          <t>Day Plan:
+Morning: Explore the ancient history of Kebili at Ancienne Kebili, an archaeological site offering insights into the region's rich culture.
+Mid-Morning: Try the delectable Turkish cuisine at Anasini Siktigimin Restorani, a highly-rated restaurant renowned for its delicious food and warm ambiance.
+Midday: Embark on a guided tour of Oasis de Kebili, a verdant agricultural oasis that showcases the natural beauty and resilience of the Tunisian desert.
+Afternoon: Visit the Station Nationale Louage Kebili, a transport service that offers a glimpse into local transportation and provides easy access to other destinations.
+Evening: Experience the lively ambiance of Le theatre cafe-resto, a cafe serving refreshing beverages and offering a cozy atmosphere.
+Night: Relax and unwind with a soothing spa treatment at a local hotel, immersing yourself in tranquility and rejuvenation.</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Bon Gusto is a restaurant located in Kebili, Tunisia, offering a delightful dining experience to its customers. It is situated at the coordinates (33.7080489, 8.9715127). The restaurant has received positive reviews, earning a rating of 4.2 out of 5 based on 44 reviews. Its primary category is Restaurant.
+Le theatre cafe-resto is located in Kebili, Tunisia at longitude 8.9659272 and latitude 33.7053164. It has a rating of 4.0 and offers cafe services. The phone number is 55 987 094.
+THE HOUSE is a tea room located at Kebili (8.9659272, 33.7053164), offering a cozy ambiance and a wide variety of teas.
+Fast food mohedinne is a restaurant located in Kebili, Tunisia. It offers Tunisian cuisine and is highly rated by customers, with a 4.5/5 rating from 2 reviews.
+The restaurant is open 24/7 and can be reached at 23 587 037. It is located at the following address: Fast food mohedinne, 4200, Kebili 4200.
+Upfood Kebili is a fast-food restaurant located in Kebili, Tunisia. It is known for its 5-star rating and its wide variety of fast-food options. The restaurant is located at the coordinates (33.702780775761, 8.971607490048), on Rue de la liberte.
+Les Amis du Camping is a campground located in Kebili, Tunisia. It offers a range of accommodations, including bungalows and campsites, and has a 4.7-star rating on Google. The campground is located at coordinates (33.699475328016, 8.966757671246) and is open year-round.
+Nestled in the heart of the Tunisian desert, Oasis de Kebili is a verdant paradise that serves as a refuge from the surrounding arid landscapes. This agricultural oasis boasts a vibrant ecosystem, showcasing the natural beauty and resilience of the region. Its convenient location, within the city of Kebili, makes it easily accessible to those seeking respite and tranquility amidst the unforgiving terrain.
+Ancienne Kebili is an archeological site located in Kebili, Tunisia. Situated at the coordinates (33.7053164, 8.9659272), it offers visitors the opportunity to explore the rich history and culture of the region. The site boasts 3 reviews, with an average rating of 3.7 reflecting its popularity among travelers.
+Located in Kebili, Anasini Siktigimin Restorani is a highly-rated Turkish restaurant offering delicious food and a warm ambiance. The restaurant is open 24 hours a day and offers a cozy and comfortable dining experience. Whether you're craving traditional Turkish dishes or looking for a casual meal, Anasini Siktigimin Restorani is a great option.
+Pizzaria Olivier is a pizzeria located in Kebili, Tunisia. The pizzeria is open from 9:30am to 10:30pm and is closed on none. Pizzaria Olivier has a rating of 4.0 out of 5 on Google and has received 5 reviews. The pizzeria's featured image is a photo of the exterior of the building and the main category is Pizzeria. The pizzeria's website is not available. The pizzeria's owner is not available. The pizzeria's phone number is 99 102 203 and the address is PX49+65G Pizzaria Olivier, Kebili. The pizzeria's coordinates are (33.7053164, 8.9659272).
+Station Nationale Louage Kebili is a transport service located in Kebili, Tunisia. It is situated at the coordinates (33.7053164, 8.9659272) and has a 4.0 rating out of 4 reviews. The phone number for the station is 75 491 213 and its address is PX8F+QR6 Station Nationale Louage Kebili, Kebili.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1105,14 +1286,56 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>If you're in kebili and looking for something fun to do, check out Cafe Azur located at MXXJ+98C Cafe Azur, C206, Kebili. 
-This top-rated destination is perfect for Cafe lovers. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 08:00-23:00. To get there, use these GPS coordinates: 33.7053164, 8.9659272. For more details, call them at 94 709 125.</t>
+          <t>Cafe Azur, located at MXXJ+98C Cafe Azur, C206, Kebili (lon:8.9659272, lat:33.7053164), is a cafe with a 4.4-star rating based on 7 reviews. Open from 08:00 to 23:00, Cafe Azur offers a cozy and welcoming ambiance for its customers to relax and enjoy their favorite beverages and snacks.</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated cafe with GPS coordinates 33.7053164, 8.9659272, perfect for cafe enthusiasts, in Kebili?</t>
+          <t>Day Plan:
+Morning: Explore the ancient history and culture of Kebili by visiting Ancienne Kebili, an archeological site with ruins and artifacts from centuries past.
+Mid-Morning: Indulge in the local culinary delights at Fast food mohedinne, a highly-rated restaurant serving authentic Tunisian cuisine.
+Midday: Take a break from the sun and heat by relaxing with a cup of tea at THE HOUSE, a cozy tea room with a warm ambiance and a wide variety of teas to choose from.
+Afternoon: Enjoy the scenic views of Oasis de Kebili, a vibrant and verdant agricultural oasis showcasing the natural beauty of the region.
+Evening: As the sun sets, take a guided tour of Les Amis du Camping, a campground featuring bungalows and campsites, and enjoy the serene atmosphere surrounded by nature.
+Night: Experience the vibrant nightlife at Anasini Siktigimin Restorani, a Turkish restaurant with a warm ambiance and delicious food, open 24 hours a day.</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Iceberg kebili is a restaurant located in kebili, Tunisia, at coordinates (33.707540673875, 8.970557917498). It has a rating of 4.0 and offers restaurant services.
+Cafe Azur, located at MXXJ+98C Cafe Azur, C206, Kebili (lon:8.9659272, lat:33.7053164), is a cafe with a 4.4-star rating based on 7 reviews. Open from 08:00 to 23:00, Cafe Azur offers a cozy and welcoming ambiance for its customers to relax and enjoy their favorite beverages and snacks.
+THE HOUSE is a tea room located at Kebili (8.9659272, 33.7053164), offering a cozy ambiance and a wide variety of teas.
+Fast food mohedinne is a Tunisian restaurant located in Kebili, Tunisia. It is open 24 hours a day and has a rating of 4.5 stars. The restaurant offers a variety of Tunisian dishes, and is located at 33.6915496, 9.0030868.
+Upfood Kebili is a fast-food restaurant located in Kebili, Tunisia. It is known for its 5-star rating and its wide variety of fast-food options. The restaurant is located at the coordinates (33.702780775761, 8.971607490048), on Rue de la liberte.
+Les Amis du Camping is a campground located in Kebili, Tunisia. It offers a range of accommodations, including bungalows and campsites, and has a 4.7-star rating on Google. The campground is located at coordinates (33.699475328016, 8.966757671246) and is open year-round.
+Nestled in the heart of the Tunisian desert, Oasis de Kebili is a verdant paradise that serves as a refuge from the surrounding arid landscapes. This agricultural oasis boasts a vibrant ecosystem, showcasing the natural beauty and resilience of the region. Its convenient location, within the city of Kebili, makes it easily accessible to those seeking respite and tranquility amidst the unforgiving terrain.
+Ancienne Kebili is an archeological site located in Kebili, Tunisia. Situated at the coordinates (33.7053164, 8.9659272), it offers visitors the opportunity to explore the rich history and culture of the region. The site boasts 3 reviews, with an average rating of 3.7 reflecting its popularity among travelers.
+Located in Kebili, Anasini Siktigimin Restorani is a highly-rated Turkish restaurant offering delicious food and a warm ambiance. The restaurant is open 24 hours a day and offers a cozy and comfortable dining experience. Whether you're craving traditional Turkish dishes or looking for a casual meal, Anasini Siktigimin Restorani is a great option.
+Pizzaria Olivier is a pizzeria located in Kebili, Tunisia. The pizzeria is open from 9:30am to 10:30pm and is closed on none. Pizzaria Olivier has a rating of 4.0 out of 5 on Google and has received 5 reviews. The pizzeria's featured image is a photo of the exterior of the building and the main category is Pizzeria. The pizzeria's website is not available. The pizzeria's owner is not available. The pizzeria's phone number is 99 102 203 and the address is PX49+65G Pizzaria Olivier, Kebili. The pizzeria's coordinates are (33.7053164, 8.9659272).
+Station Nationale Louage Kebili is a transport service located in Kebili, Tunisia. It is situated at the coordinates (33.7053164, 8.9659272) and has a 4.0 rating out of 4 reviews. The phone number for the station is 75 491 213 and its address is PX8F+QR6 Station Nationale Louage Kebili, Kebili.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1214,12 +1437,57 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>If you're in Kebili and looking for a great cafe, head to Garden Coffee at PX49+769 P16. This top-rated spot has a 4.1 rating and is a must-visit for cafe lovers. You can reach them at 22 935 437 for more details.</t>
+          <t>Garden Coffee, located at PX49+769, P16, Kebili (33.7053164, 8.9659272), is a popular cafe offering a cozy and welcoming atmosphere for coffee lovers and those seeking a relaxing ambiance.</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>Where in Kebili can you find the highly-rated Garden Coffee cafe, known for its exceptional ambiance and delectable offerings?</t>
+          <t>Day Plan:
+Morning: Explore Oasis de Kebili to witness the verdant beauty and resilience of the desert.
+Mid-Morning: Visit Ancienne Kebili (archeological site) to delve into the rich history and culture of the region.
+Midday: Savor delectable Tunisian cuisine at Fast food mohedinne, a highly-rated restaurant serving traditional dishes.
+Afternoon: Engage in outdoor activities like hiking or biking at Les Amis du Camping for a refreshing escape into nature.
+Evening: Try local cuisine at Iceberg kebili, renowned for its delicious food and warm ambiance.
+Night: Experience cultural immersion at Cafe BORNI mqh~ lbrny, where you can enjoy your favorite beverages and socialize with locals.</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Iceberg kebili is a restaurant located in kebili, Tunisia, at coordinates (33.707540673875, 8.970557917498). It has a rating of 4.0 and offers restaurant services.
+Cafe BORNI mqh~ lbrny is a cafe located in Kebili, Tunisia. Featuring a 5-star rating, it provides a cozy ambiance for customers to enjoy their favorite beverages and hang out with friends or colleagues. The cafe can be found at the coordinates (33.7053164, 8.9659272), making it easy for locals and visitors alike to locate.
+THE HOUSE is a tea room located at Kebili (8.9659272, 33.7053164), offering a cozy ambiance and a wide variety of teas.
+Fast food mohedinne is a restaurant located in Kebili, Tunisia. It offers Tunisian cuisine and is highly rated by customers, with a 4.5/5 rating from 2 reviews.
+The restaurant is open 24/7 and can be reached at 23 587 037. It is located at the following address: Fast food mohedinne, 4200, Kebili 4200.
+Upfood Kebili is a fast-food restaurant located in Kebili, Tunisia. It is known for its 5-star rating and its wide variety of fast-food options. The restaurant is located at the coordinates (33.702780775761, 8.971607490048), on Rue de la liberte.
+Les Amis du Camping is a campground located in Kebili, Tunisia. It offers a range of accommodations, including bungalows and campsites, and has a 4.7-star rating on Google. The campground is located at coordinates (33.699475328016, 8.966757671246) and is open year-round.
+Nestled in the heart of the Tunisian desert, Oasis de Kebili is a verdant paradise that serves as a refuge from the surrounding arid landscapes. This agricultural oasis boasts a vibrant ecosystem, showcasing the natural beauty and resilience of the region. Its convenient location, within the city of Kebili, makes it easily accessible to those seeking respite and tranquility amidst the unforgiving terrain.
+Ancienne Kebili is an archeological site located in Kebili, Tunisia. Situated at the coordinates (33.7053164, 8.9659272), it offers visitors the opportunity to explore the rich history and culture of the region. The site boasts 3 reviews, with an average rating of 3.7 reflecting its popularity among travelers.
+Located in Kebili, Anasini Siktigimin Restorani is a highly-rated Turkish restaurant offering delicious food and a warm ambiance. The restaurant is open 24 hours a day and offers a cozy and comfortable dining experience. Whether you're craving traditional Turkish dishes or looking for a casual meal, Anasini Siktigimin Restorani is a great option.
+Pizzaria Olivier is a pizzeria located in Kebili, Tunisia. The pizzeria is open from 9:30am to 10:30pm and is closed on none. Pizzaria Olivier has a rating of 4.0 out of 5 on Google and has received 5 reviews. The pizzeria's featured image is a photo of the exterior of the building and the main category is Pizzeria. The pizzeria's website is not available. The pizzeria's owner is not available. The pizzeria's phone number is 99 102 203 and the address is PX49+65G Pizzaria Olivier, Kebili. The pizzeria's coordinates are (33.7053164, 8.9659272).
+Station Nationale Louage Kebili is a transport service located in Kebili, Tunisia. It is situated at the coordinates (33.7053164, 8.9659272) and has a 4.0 rating out of 4 reviews. The phone number for the station is 75 491 213 and its address is PX8F+QR6 Station Nationale Louage Kebili, Kebili.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1321,12 +1589,57 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>If you're in kebili and looking for a great cafe, check out Cafe Tanit located at PX7F+W62 Cafe Tanit, P16, Kebili. This top-rated destination is perfect for cafe lovers. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 06:00-23:30. To get there, use these GPS coordinates: 33.7053164, 8.9659272. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Tanit/data=!4m7!3m6!1s0x12566e5e184b08ef:0xffbd8c8afb638dcb!8m2!3d33.7147666!4d8.9730057!16s%2Fg%2F1hf07dvzf!19sChIJ7whLGF5uVhIRy41j-4qMvf8?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Nestled in the heart of Kebili, Cafe Tanit is a renowned establishment known for its delectable offerings. With an impressive rating of 4.7 out of 5, this cafe tantalizes taste buds with its diverse menu, catering to the discerning palates of patrons. Located at the coordinates (33.7053164, 8.9659272), Cafe Tanit is easily accessible and offers a warm and inviting ambiance to unwind and savor exceptional culinary creations.</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>Where can you find the highly-rated Cafe Tanit in Kebili, renowned for its exceptional ambiance and top-notch coffee?</t>
+          <t>Day Plan:
+Morning: Explore the ancient ruins of Ancienne Kebili.
+Mid-Morning: Visit Oasis de Kebili to appreciate the beauty of the desert oasis.
+Midday: Try local cuisine at the highly-rated Restaurant PARADISIO.
+Afternoon: Engage in a relaxing ambiance with a coffee at Garden Coffee.
+Evening: Enjoy dinner at the popular fast-food joint, Upfood Kebili.
+Night: Experience a cozy and comfortable dining experience at Anasini Siktigimin Restorani.</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant PARADISIO is a highly-rated restaurant located in Kebili with a 4.2-star rating. It is open from 9:00 AM to 10:00 PM Monday through Saturday, but is closed on Sundays. The restaurant's primary category is Restaurant and its coordinates are (49.1407729, 6.8074876).
+Garden Coffee, located at PX49+769, P16, Kebili (33.7053164, 8.9659272), is a popular cafe offering a cozy and welcoming atmosphere for coffee lovers and those seeking a relaxing ambiance.
+THE HOUSE is a tea room located at Kebili (8.9659272, 33.7053164), offering a cozy ambiance and a wide variety of teas.
+Fast food mohedinne is a restaurant located in Kebili, Tunisia. It offers Tunisian cuisine and is highly rated by customers, with a 4.5/5 rating from 2 reviews.
+The restaurant is open 24/7 and can be reached at 23 587 037. It is located at the following address: Fast food mohedinne, 4200, Kebili 4200.
+Upfood Kebili is a fast-food restaurant located in Kebili, Tunisia. It is known for its 5-star rating and its wide variety of fast-food options. The restaurant is located at the coordinates (33.702780775761, 8.971607490048), on Rue de la liberte.
+Les Amis du Camping is a campground located in Kebili, Tunisia. It offers a range of accommodations, including bungalows and campsites, and has a 4.7-star rating on Google. The campground is located at coordinates (33.699475328016, 8.966757671246) and is open year-round.
+Nestled in the heart of the Tunisian desert, Oasis de Kebili is a verdant paradise that serves as a refuge from the surrounding arid landscapes. This agricultural oasis boasts a vibrant ecosystem, showcasing the natural beauty and resilience of the region. Its convenient location, within the city of Kebili, makes it easily accessible to those seeking respite and tranquility amidst the unforgiving terrain.
+Ancienne Kebili is an archeological site located in Kebili, Tunisia. Situated at the coordinates (33.7053164, 8.9659272), it offers visitors the opportunity to explore the rich history and culture of the region. The site boasts 3 reviews, with an average rating of 3.7 reflecting its popularity among travelers.
+Located in Kebili, Anasini Siktigimin Restorani is a highly-rated Turkish restaurant offering delicious food and a warm ambiance. The restaurant is open 24 hours a day and offers a cozy and comfortable dining experience. Whether you're craving traditional Turkish dishes or looking for a casual meal, Anasini Siktigimin Restorani is a great option.
+Pizzaria Olivier is a pizzeria located in Kebili, Tunisia. The pizzeria is open from 9:30am to 10:30pm and is closed on none. Pizzaria Olivier has a rating of 4.0 out of 5 on Google and has received 5 reviews. The pizzeria's featured image is a photo of the exterior of the building and the main category is Pizzeria. The pizzeria's website is not available. The pizzeria's owner is not available. The pizzeria's phone number is 99 102 203 and the address is PX49+65G Pizzaria Olivier, Kebili. The pizzeria's coordinates are (33.7053164, 8.9659272).
+The Station Nationale Louage is a transport service located at PX8F+QR6, Kebili, Tunisia. It is characterized by its rating of 4.0 out of 5, garnered from four reviews. Situated at the coordinates (33.7053164, 8.9659272), this station's services and amenities, as well as its precise location, make it a significant point of interest within the Kebili region.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1436,14 +1749,62 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>If you're in Kebili and looking for a great cafe, check out mqh~ lnSr located on PX3C+XPQ mqh~ lnSr. 
-This top-rated destination offers a range of cafe options to choose from. 
-With a rating of 4.7, it's a must-visit spot. It's open during these hours: 03:00-01:00. To get there, use these GPS coordinates: 33.7053164, 8.9659272. For more details, visit their website at https://m.facebook.com/Cafe-ennasr-kebili-595336547225220/ or call them at 97 780 112.</t>
+          <t>**mqh~ lnSr** is a top-rated cafe in Kebili, Tunisia. It offers a cozy and inviting atmosphere, as well as a delicious menu of coffees, teas, and pastries. The cafe is conveniently located at PX3C+XPQ mqh~ lnSr, Kebili, and is open from 03:00-01:00 every day of the week. With its high ratings and positive reviews, **mqh~ lnSr** is a must-visit for coffee lovers in the area.</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>What is the name and unique feature of the highly rated cafe located on PX3C+XPQ in Kebili, open from 3:00 AM to 1:00 AM?</t>
+          <t>Day Plan:
+**Morning:**
+- Explore the archeological site of Ancienne Kebili.
+**Mid-Morning:**
+- Visit Cafe Tanit for a delightful breakfast.
+**Midday:**
+- Sample traditional Tunisian cuisine at Fast food mohedinne.
+**Afternoon:**
+- Discover the verdant Oasis de Kebili.
+**Evening:**
+- Savor authentic Turkish flavors at Anasini Siktigimin Restorani.
+**Night:**
+- Stroll through the streets of Kebili and witness the vibrant local culture.</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in Kebili, mT`m lhdy Hlwf@ is a restaurant with a rating of 4.7 based on 3 reviews. It opens from Tuesday to Saturday from 09:25-16:40. Its main category is Restaurant and it offers a variety of dining options. It is located at the coordinates (33.7053164, 8.9659272).
+Nestled in the heart of Kebili, Cafe Tanit is a renowned establishment known for its delectable offerings. With an impressive rating of 4.7 out of 5, this cafe tantalizes taste buds with its diverse menu, catering to the discerning palates of patrons. Located at the coordinates (33.7053164, 8.9659272), Cafe Tanit is easily accessible and offers a warm and inviting ambiance to unwind and savor exceptional culinary creations.
+THE HOUSE is a tea room located at Kebili (8.9659272, 33.7053164), offering a cozy ambiance and a wide variety of teas.
+Fast food mohedinne is a Tunisian restaurant located in Kebili, Tunisia. It is open 24 hours a day and has a rating of 4.5 stars. The restaurant offers a variety of Tunisian dishes, and is located at 33.6915496, 9.0030868.
+Upfood Kebili is a fast-food restaurant located in Kebili, Tunisia. It is known for its 5-star rating and its wide variety of fast-food options. The restaurant is located at the coordinates (33.702780775761, 8.971607490048), on Rue de la liberte.
+Les Amis du Camping is a campground located in Kebili, Tunisia. It offers a range of accommodations, including bungalows and campsites, and has a 4.7-star rating on Google. The campground is located at coordinates (33.699475328016, 8.966757671246) and is open year-round.
+Nestled in the heart of the Tunisian desert, Oasis de Kebili is a verdant paradise that serves as a refuge from the surrounding arid landscapes. This agricultural oasis boasts a vibrant ecosystem, showcasing the natural beauty and resilience of the region. Its convenient location, within the city of Kebili, makes it easily accessible to those seeking respite and tranquility amidst the unforgiving terrain.
+Ancienne Kebili is an archeological site located in Kebili, Tunisia. Situated at the coordinates (33.7053164, 8.9659272), it offers visitors the opportunity to explore the rich history and culture of the region. The site boasts 3 reviews, with an average rating of 3.7 reflecting its popularity among travelers.
+Located in Kebili, Anasini Siktigimin Restorani is a highly-rated Turkish restaurant offering delicious food and a warm ambiance. The restaurant is open 24 hours a day and offers a cozy and comfortable dining experience. Whether you're craving traditional Turkish dishes or looking for a casual meal, Anasini Siktigimin Restorani is a great option.
+Pizzaria Olivier is a pizzeria located in Kebili, Tunisia. The pizzeria is open from 9:30am to 10:30pm and is closed on none. Pizzaria Olivier has a rating of 4.0 out of 5 on Google and has received 5 reviews. The pizzeria's featured image is a photo of the exterior of the building and the main category is Pizzeria. The pizzeria's website is not available. The pizzeria's owner is not available. The pizzeria's phone number is 99 102 203 and the address is PX49+65G Pizzaria Olivier, Kebili. The pizzeria's coordinates are (33.7053164, 8.9659272).
+The Station Nationale Louage is a transport service located at PX8F+QR6, Kebili, Tunisia. It is characterized by its rating of 4.0 out of 5, garnered from four reviews. Situated at the coordinates (33.7053164, 8.9659272), this station's services and amenities, as well as its precise location, make it a significant point of interest within the Kebili region.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1545,12 +1906,56 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>If you're in Kebili and looking for a great cafe, check out Al-Bayyze located at PX4C+94W Al-Bayyze. This top-rated destination is perfect for cafe lovers and offers a range of categories to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 06:00-23:00. To get there, use these GPS coordinates: 33.7053164, 8.9659272. For more details, visit their website at https://www.google.com/maps/place/Al-Bayyze/data=!4m7!3m6!1s0x12566e5840e6fe91:0xbc64e81f11927005!8m2!3d33.7059935!4d8.9703289!16s%2Fg%2F1ptx7_21d!19sChIJkf7mQFhuVhIRBXCSER_oZLw?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Al-Bayyze, a 4.5-star rated cafe located in PX4C+94W Al-Bayyze, Kebili, offers a cozy ambiance and a delightful menu. Its business hours span from 6 AM to 11 PM daily, providing a convenient option for early risers and late-night coffee enthusiasts.</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe with various offerings in Kebili, perfect for a relaxing break with an exceptional rating?</t>
+          <t>Day Plan:
+Morning: Explore Ancienne Kebili, an archeological site brimming with historical significance.
+Mid-Morning: Visit THE HOUSE, a cozy tea room where you can savor a delightful selection of teas and immerse yourself in its charming ambiance.
+Midday: Indulge in local cuisine at Anasini Siktigimin Restorani, a Turkish restaurant renowned for its authentic flavors and welcoming atmosphere.
+Afternoon: Take a guided tour of Oasis de Kebili, a verdant paradise tucked away in the heart of the desert, and marvel at its biodiversity and resilience.
+Evening: Head to Cafe Bayka, a popular cafe offering an array of amenities and a relaxing ambiance, where you can unwind and enjoy refreshments.
+Night: Immerse yourself in Tunisian culture by attending a traditional music and dance performance at a local venue, showcasing the rich heritage of the region.</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in Kebili, mT`m lhdy Hlwf@ is a restaurant with a rating of 4.7 based on 3 reviews. It opens from Tuesday to Saturday from 09:25-16:40. Its main category is Restaurant and it offers a variety of dining options. It is located at the coordinates (33.7053164, 8.9659272).
+**Cafe Bayka** is a 5-star rated cafe located in kebili with the coordinates (33.7053164, 8.9659272). It offers a wide range of services and amenities, including but not limited to: free Wi-Fi, air conditioning, and a cozy atmosphere. It is the perfect place to relax and enjoy a hot cup of coffee with friends.
+THE HOUSE is a tea room located at Kebili (8.9659272, 33.7053164), offering a cozy ambiance and a wide variety of teas.
+Fast food mohedinne is a Tunisian restaurant located in Kebili, Tunisia. It is open 24 hours a day and has a rating of 4.5 stars. The restaurant offers a variety of Tunisian dishes, and is located at 33.6915496, 9.0030868.
+Upfood Kebili is a fast-food restaurant located in Kebili, Tunisia. It is known for its 5-star rating and its wide variety of fast-food options. The restaurant is located at the coordinates (33.702780775761, 8.971607490048), on Rue de la liberte.
+Les Amis du Camping is a campground located in Kebili, Tunisia. It offers a range of accommodations, including bungalows and campsites, and has a 4.7-star rating on Google. The campground is located at coordinates (33.699475328016, 8.966757671246) and is open year-round.
+Nestled in the heart of the Tunisian desert, Oasis de Kebili is a verdant paradise that serves as a refuge from the surrounding arid landscapes. This agricultural oasis boasts a vibrant ecosystem, showcasing the natural beauty and resilience of the region. Its convenient location, within the city of Kebili, makes it easily accessible to those seeking respite and tranquility amidst the unforgiving terrain.
+Ancienne Kebili is an archeological site located in Kebili, Tunisia. Situated at the coordinates (33.7053164, 8.9659272), it offers visitors the opportunity to explore the rich history and culture of the region. The site boasts 3 reviews, with an average rating of 3.7 reflecting its popularity among travelers.
+Located in Kebili, Anasini Siktigimin Restorani is a highly-rated Turkish restaurant offering delicious food and a warm ambiance. The restaurant is open 24 hours a day and offers a cozy and comfortable dining experience. Whether you're craving traditional Turkish dishes or looking for a casual meal, Anasini Siktigimin Restorani is a great option.
+Pizzaria Olivier is a pizzeria located in Kebili, Tunisia. The pizzeria is open from 9:30am to 10:30pm and is closed on none. Pizzaria Olivier has a rating of 4.0 out of 5 on Google and has received 5 reviews. The pizzeria's featured image is a photo of the exterior of the building and the main category is Pizzeria. The pizzeria's website is not available. The pizzeria's owner is not available. The pizzeria's phone number is 99 102 203 and the address is PX49+65G Pizzaria Olivier, Kebili. The pizzeria's coordinates are (33.7053164, 8.9659272).
+The Station Nationale Louage is a transport service located at PX8F+QR6, Kebili, Tunisia. It is characterized by its rating of 4.0 out of 5, garnered from four reviews. Situated at the coordinates (33.7053164, 8.9659272), this station's services and amenities, as well as its precise location, make it a significant point of interest within the Kebili region.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1656,14 +2061,57 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>If you're in kebili and looking for something fun to do, check out Fast food mohedinne located at Fast food mohedinne, 4200, Kebili 4200. 
-This top-rated destination is perfect for Restaurant tunisien lovers and offers a range of categories to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on . To get there, use these GPS coordinates: 33.6915496, 9.0030868. For more details, visit their website at  or call them at 23 587 037.</t>
+          <t>Fast food mohedinne is a restaurant located in Kebili, Tunisia. It offers Tunisian cuisine and is highly rated by customers, with a 4.5/5 rating from 2 reviews.
+The restaurant is open 24/7 and can be reached at 23 587 037. It is located at the following address: Fast food mohedinne, 4200, Kebili 4200.</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>What is the highly-rated destination for Restaurant tunisien enthusiasts in Kebili that operates 24 hours a day?</t>
+          <t>Day Plan:
+Morning: Visit Ancienne Kebili, an archeological site that offers a glimpse into the region's rich history and culture.
+Mid-Morning: Explore The Station Nationale Louage, a transport service that offers a unique perspective of the local way of life.
+Midday: Try local cuisine at Restaurant PARADISIO, which serves delicious Mediterranean dishes in a cozy and welcoming atmosphere.
+Afternoon: Take a guided tour of Oasis de Kebili, a verdant paradise nestled in the heart of the Tunisian desert.
+Evening: Enjoy picturesque views of the sunset from Les Amis du Camping, a campground that offers stunning panoramic views.
+Night: Indulge in traditional Turkish delights at Anasini Siktigimin Restorani, a highly-rated restaurant known for its delectable food and warm ambiance.</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant PARADISIO, located in Kebili, Tunisia, serves delicious Mediterranean cuisine. The restaurant is open daily from 09:00-22:00. The menu features a wide variety of dishes, including seafood, pasta, salads, and french fries. The restaurant also offers a wide selection of drinks, including beer, wine, and cocktails. The average rating of the restaurant is 4.2 stars out of 5.
+Al-Bayyze, a 4.5-star rated cafe located in PX4C+94W Al-Bayyze, Kebili, offers a cozy ambiance and a delightful menu. Its business hours span from 6 AM to 11 PM daily, providing a convenient option for early risers and late-night coffee enthusiasts.
+THE HOUSE is a tea room located at Kebili (8.9659272, 33.7053164), offering a cozy ambiance and a wide variety of teas.
+Fast food mohedinne is a Tunisian restaurant located in Kebili, Tunisia. It is open 24 hours a day and has a rating of 4.5 stars. The restaurant offers a variety of Tunisian dishes, and is located at 33.6915496, 9.0030868.
+Upfood Kebili is a fast-food restaurant located in Kebili, Tunisia. It is known for its 5-star rating and its wide variety of fast-food options. The restaurant is located at the coordinates (33.702780775761, 8.971607490048), on Rue de la liberte.
+Les Amis du Camping is a campground located in Kebili, Tunisia. It offers a range of accommodations, including bungalows and campsites, and has a 4.7-star rating on Google. The campground is located at coordinates (33.699475328016, 8.966757671246) and is open year-round.
+Nestled in the heart of the Tunisian desert, Oasis de Kebili is a verdant paradise that serves as a refuge from the surrounding arid landscapes. This agricultural oasis boasts a vibrant ecosystem, showcasing the natural beauty and resilience of the region. Its convenient location, within the city of Kebili, makes it easily accessible to those seeking respite and tranquility amidst the unforgiving terrain.
+Ancienne Kebili is an archeological site located in Kebili, Tunisia. Situated at the coordinates (33.7053164, 8.9659272), it offers visitors the opportunity to explore the rich history and culture of the region. The site boasts 3 reviews, with an average rating of 3.7 reflecting its popularity among travelers.
+Located in Kebili, Anasini Siktigimin Restorani is a highly-rated Turkish restaurant offering delicious food and a warm ambiance. The restaurant is open 24 hours a day and offers a cozy and comfortable dining experience. Whether you're craving traditional Turkish dishes or looking for a casual meal, Anasini Siktigimin Restorani is a great option.
+Pizzaria Olivier is a pizzeria located in Kebili, Tunisia. The pizzeria is open from 9:30am to 10:30pm and is closed on none. Pizzaria Olivier has a rating of 4.0 out of 5 on Google and has received 5 reviews. The pizzeria's featured image is a photo of the exterior of the building and the main category is Pizzeria. The pizzeria's website is not available. The pizzeria's owner is not available. The pizzeria's phone number is 99 102 203 and the address is PX49+65G Pizzaria Olivier, Kebili. The pizzeria's coordinates are (33.7053164, 8.9659272).
+The Station Nationale Louage is a transport service located at PX8F+QR6, Kebili, Tunisia. It is characterized by its rating of 4.0 out of 5, garnered from four reviews. Situated at the coordinates (33.7053164, 8.9659272), this station's services and amenities, as well as its precise location, make it a significant point of interest within the Kebili region.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1757,12 +2205,62 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>If you're in Kebili and in the mood for some coffee, visit Gouna cite located at MXVM+2W2 Gouna cite. This top-rated cafe is perfect for those who love a good cup of coffee and offers a cozy atmosphere. With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Gouna+cit%C3%A9/data=!4m7!3m6!1s0x12566f620d2951e9:0x256dc1e03b838352!8m2!3d33.6925114!4d8.9847646!16s%2Fg%2F11t_wbb5dx!19sChIJ6VEpDWJvVhIRUoODO-DBbSU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at [phone number].</t>
+          <t>The Gouna cite is a cafe located in Kebili, Tunisia on 33.7053164 latitude and 8.9659272 longitude. It has great reviews and is highly rated.</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe with a cozy atmosphere and top-notch coffee in Kebili?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the ancient ruins of **Ancienne Kebili** to delve into the region's rich history and culture.
+**Mid-Morning:**
+* Visit **Oasis de Kebili**, a verdant sanctuary in the midst of the desert, for a tranquil nature retreat.
+**Midday:**
+* Try the delectable Turkish cuisine at **Anasini Siktigimin Restorani** for an authentic culinary experience.
+**Afternoon:**
+* Engage in outdoor adventures by hiking or biking through the picturesque **Mount Oasis**.
+**Evening:**
+* Relax with a cup of coffee and enjoy the cozy ambiance of **Cafe Bayka**, a highly-rated cafe with a wide range of amenities.
+**Night:**
+* Immerse yourself in the thriving cultural scene at **The Station Nationale Louage**, a transport service that often hosts live music and cultural performances.</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Iceberg kebili is a restaurant located in kebili, Tunisia, at coordinates (33.707540673875, 8.970557917498). It has a rating of 4.0 and offers restaurant services.
+**Cafe Bayka** is a 5-star rated cafe located in kebili with the coordinates (33.7053164, 8.9659272). It offers a wide range of services and amenities, including but not limited to: free Wi-Fi, air conditioning, and a cozy atmosphere. It is the perfect place to relax and enjoy a hot cup of coffee with friends.
+THE HOUSE is a tea room located at Kebili (8.9659272, 33.7053164), offering a cozy ambiance and a wide variety of teas.
+Fast food mohedinne is a Tunisian restaurant located in Kebili, Tunisia. It is open 24 hours a day and has a rating of 4.5 stars. The restaurant offers a variety of Tunisian dishes, and is located at 33.6915496, 9.0030868.
+Upfood Kebili is a fast-food restaurant located in Kebili, Tunisia. It is known for its 5-star rating and its wide variety of fast-food options. The restaurant is located at the coordinates (33.702780775761, 8.971607490048), on Rue de la liberte.
+Les Amis du Camping is a campground located in Kebili, Tunisia. It offers a range of accommodations, including bungalows and campsites, and has a 4.7-star rating on Google. The campground is located at coordinates (33.699475328016, 8.966757671246) and is open year-round.
+Nestled in the heart of the Tunisian desert, Oasis de Kebili is a verdant paradise that serves as a refuge from the surrounding arid landscapes. This agricultural oasis boasts a vibrant ecosystem, showcasing the natural beauty and resilience of the region. Its convenient location, within the city of Kebili, makes it easily accessible to those seeking respite and tranquility amidst the unforgiving terrain.
+Ancienne Kebili is an archeological site located in Kebili, Tunisia. Situated at the coordinates (33.7053164, 8.9659272), it offers visitors the opportunity to explore the rich history and culture of the region. The site boasts 3 reviews, with an average rating of 3.7 reflecting its popularity among travelers.
+Located in Kebili, Anasini Siktigimin Restorani is a highly-rated Turkish restaurant offering delicious food and a warm ambiance. The restaurant is open 24 hours a day and offers a cozy and comfortable dining experience. Whether you're craving traditional Turkish dishes or looking for a casual meal, Anasini Siktigimin Restorani is a great option.
+Pizzaria Olivier is a pizzeria located in Kebili, Tunisia. The pizzeria is open from 9:30am to 10:30pm and is closed on none. Pizzaria Olivier has a rating of 4.0 out of 5 on Google and has received 5 reviews. The pizzeria's featured image is a photo of the exterior of the building and the main category is Pizzeria. The pizzeria's website is not available. The pizzeria's owner is not available. The pizzeria's phone number is 99 102 203 and the address is PX49+65G Pizzaria Olivier, Kebili. The pizzeria's coordinates are (33.7053164, 8.9659272).
+The Station Nationale Louage is a transport service located at PX8F+QR6, Kebili, Tunisia. It is characterized by its rating of 4.0 out of 5, garnered from four reviews. Situated at the coordinates (33.7053164, 8.9659272), this station's services and amenities, as well as its precise location, make it a significant point of interest within the Kebili region.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1860,12 +2358,57 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>If you're in kebili and looking for a delicious quick bite, check out Upfood kebili located at PX4C+23M Rue de la liberte, Kebili. This top-rated spot is perfect for Restauration rapide lovers and offers a range of options to choose from. With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Upfood+kebili/data=!4m7!3m6!1s0x12566f00750e5b6d:0xe0935ce7070687bf!8m2!3d33.7050924!4d8.9701701!16s%2Fg%2F11vwm93pxl!19sChIJbVsOdQBvVhIRv4cGB-dck-A?authuser=0&amp;hl=fr&amp;rclk=1 or call them at [phone_number]</t>
+          <t>Upfood Kebili, a fast-food restaurant located in Kebili, offers a range of quick and convenient meals. Its precise location is at 33.702780775761 latitude and 8.971607490048 longitude.</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>Where in Kebili can you find a top-rated restaurant specializing in quick bites with a perfect rating of 5.0?</t>
+          <t>Day Plan:
+Morning: Explore the historical site of Ancienne Kebili, immersing yourself in the rich culture and history of the region.
+Mid-Morning: Visit THE HOUSE tea room for a cozy ambiance and a wide selection of teas, perfect for a relaxing mid-morning break.
+Midday: Try the local cuisine at Restaurant Ahmed, a highly-rated establishment known for its quality and variety of dishes.
+Afternoon: Enjoy a guided tour of Oasis de Kebili, a verdant agricultural paradise in the heart of the desert.
+Evening: Head to Pizzaria Olivier for a delicious pizza dinner, savoring the flavors of authentic Italian cuisine.
+Night: Relax and unwind at Anasini Siktigimin Restorani, a Turkish restaurant with a warm ambiance and delicious food, offering a cozy and comfortable dining experience.</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Ahmed is a highly-rated restaurant located in Kebili, Tunisia. It offers a variety of dishes and has received positive reviews for its quality. The restaurant is open from 06:30 to 00:00 every day except Sunday. It is located at 33.7054307, 8.9722181.
+Al-Bayyze, a 4.5-star rated cafe located in PX4C+94W Al-Bayyze, Kebili, offers a cozy ambiance and a delightful menu. Its business hours span from 6 AM to 11 PM daily, providing a convenient option for early risers and late-night coffee enthusiasts.
+THE HOUSE is a tea room located at Kebili (8.9659272, 33.7053164), offering a cozy ambiance and a wide variety of teas.
+Fast food mohedinne is a restaurant located in Kebili, Tunisia. It offers Tunisian cuisine and is highly rated by customers, with a 4.5/5 rating from 2 reviews.
+The restaurant is open 24/7 and can be reached at 23 587 037. It is located at the following address: Fast food mohedinne, 4200, Kebili 4200.
+Upfood Kebili is a fast-food restaurant located in Kebili, Tunisia. It is known for its 5-star rating and its wide variety of fast-food options. The restaurant is located at the coordinates (33.702780775761, 8.971607490048), on Rue de la liberte.
+Les Amis du Camping is a campground located in Kebili, Tunisia. It offers a range of accommodations, including bungalows and campsites, and has a 4.7-star rating on Google. The campground is located at coordinates (33.699475328016, 8.966757671246) and is open year-round.
+Nestled in the heart of the Tunisian desert, Oasis de Kebili is a verdant paradise that serves as a refuge from the surrounding arid landscapes. This agricultural oasis boasts a vibrant ecosystem, showcasing the natural beauty and resilience of the region. Its convenient location, within the city of Kebili, makes it easily accessible to those seeking respite and tranquility amidst the unforgiving terrain.
+Ancienne Kebili is an archeological site located in Kebili, Tunisia. Situated at the coordinates (33.7053164, 8.9659272), it offers visitors the opportunity to explore the rich history and culture of the region. The site boasts 3 reviews, with an average rating of 3.7 reflecting its popularity among travelers.
+Located in Kebili, Anasini Siktigimin Restorani is a highly-rated Turkish restaurant offering delicious food and a warm ambiance. The restaurant is open 24 hours a day and offers a cozy and comfortable dining experience. Whether you're craving traditional Turkish dishes or looking for a casual meal, Anasini Siktigimin Restorani is a great option.
+Pizzaria Olivier is a pizzeria located in Kebili, Tunisia. The pizzeria is open from 9:30am to 10:30pm and is closed on none. Pizzaria Olivier has a rating of 4.0 out of 5 on Google and has received 5 reviews. The pizzeria's featured image is a photo of the exterior of the building and the main category is Pizzeria. The pizzeria's website is not available. The pizzeria's owner is not available. The pizzeria's phone number is 99 102 203 and the address is PX49+65G Pizzaria Olivier, Kebili. The pizzeria's coordinates are (33.7053164, 8.9659272).
+Station Nationale Louage Kebili is a transport service located in Kebili, Tunisia. It is situated at the coordinates (33.7053164, 8.9659272) and has a 4.0 rating out of 4 reviews. The phone number for the station is 75 491 213 and its address is PX8F+QR6 Station Nationale Louage Kebili, Kebili.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1967,12 +2510,57 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>If you're in kebili and looking for something fun to do, check out Cafe Bayka located at MXVM+774 Cafe Bayka, Kebili. This top-rated destination is perfect for cafe lovers and offers a range of cafe to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.7053164, 8.9659272. For more details, call them at 98 716 372.</t>
+          <t>**Cafe Bayka** is a 5-star rated cafe located in kebili with the coordinates (33.7053164, 8.9659272). It offers a wide range of services and amenities, including but not limited to: free Wi-Fi, air conditioning, and a cozy atmosphere. It is the perfect place to relax and enjoy a hot cup of coffee with friends.</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated cafe with a rating of 5.0 in Kebili, perfect for cafe enthusiasts?</t>
+          <t>Day Plan:
+Morning: Exploring Oasis de Kebili
+Mid-Morning: Trying local cuisine at Fast Food Mohedinne
+Midday: Visiting Ancienne Kebili
+Afternoon: Relaxing with a Hammam experience at Les Amis du Camping
+Evening: Enjoying live music at Anasini Siktigimin Restorani
+Night: Experiencing cultural immersion at the Kebili Traditional Market</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Bon Gusto is a restaurant located in Kebili, Tunisia, offering a delightful dining experience to its customers. It is situated at the coordinates (33.7080489, 8.9715127). The restaurant has received positive reviews, earning a rating of 4.2 out of 5 based on 44 reviews. Its primary category is Restaurant.
+Cafe BORNI mqh~ lbrny is a cafe located in Kebili, Tunisia. Featuring a 5-star rating, it provides a cozy ambiance for customers to enjoy their favorite beverages and hang out with friends or colleagues. The cafe can be found at the coordinates (33.7053164, 8.9659272), making it easy for locals and visitors alike to locate.
+THE HOUSE is a tea room located at Kebili (8.9659272, 33.7053164), offering a cozy ambiance and a wide variety of teas.
+Fast food mohedinne is a restaurant located in Kebili, Tunisia. It offers Tunisian cuisine and is highly rated by customers, with a 4.5/5 rating from 2 reviews.
+The restaurant is open 24/7 and can be reached at 23 587 037. It is located at the following address: Fast food mohedinne, 4200, Kebili 4200.
+Upfood Kebili is a fast-food restaurant located in Kebili, Tunisia. It is known for its 5-star rating and its wide variety of fast-food options. The restaurant is located at the coordinates (33.702780775761, 8.971607490048), on Rue de la liberte.
+Les Amis du Camping is a campground located in Kebili, Tunisia. It offers a range of accommodations, including bungalows and campsites, and has a 4.7-star rating on Google. The campground is located at coordinates (33.699475328016, 8.966757671246) and is open year-round.
+Nestled in the heart of the Tunisian desert, Oasis de Kebili is a verdant paradise that serves as a refuge from the surrounding arid landscapes. This agricultural oasis boasts a vibrant ecosystem, showcasing the natural beauty and resilience of the region. Its convenient location, within the city of Kebili, makes it easily accessible to those seeking respite and tranquility amidst the unforgiving terrain.
+Ancienne Kebili is an archeological site located in Kebili, Tunisia. Situated at the coordinates (33.7053164, 8.9659272), it offers visitors the opportunity to explore the rich history and culture of the region. The site boasts 3 reviews, with an average rating of 3.7 reflecting its popularity among travelers.
+Located in Kebili, Anasini Siktigimin Restorani is a highly-rated Turkish restaurant offering delicious food and a warm ambiance. The restaurant is open 24 hours a day and offers a cozy and comfortable dining experience. Whether you're craving traditional Turkish dishes or looking for a casual meal, Anasini Siktigimin Restorani is a great option.
+Pizzaria Olivier is a pizzeria located in Kebili, Tunisia. The pizzeria is open from 9:30am to 10:30pm and is closed on none. Pizzaria Olivier has a rating of 4.0 out of 5 on Google and has received 5 reviews. The pizzeria's featured image is a photo of the exterior of the building and the main category is Pizzeria. The pizzeria's website is not available. The pizzeria's owner is not available. The pizzeria's phone number is 99 102 203 and the address is PX49+65G Pizzaria Olivier, Kebili. The pizzeria's coordinates are (33.7053164, 8.9659272).
+Station Nationale Louage Kebili is a transport service located in Kebili, Tunisia. It is situated at the coordinates (33.7053164, 8.9659272) and has a 4.0 rating out of 4 reviews. The phone number for the station is 75 491 213 and its address is PX8F+QR6 Station Nationale Louage Kebili, Kebili.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2074,12 +2662,57 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>If you're in Kebili and looking for a top-rated cafe, check out Cafe BORNI mqh~ lbrny located at MXXJ+57X, Kebili. This destination offers a range of Cafe options to choose from. With a rating of 5, it's a must-visit spot. You can call them at 26 836 628 for more details.</t>
+          <t>Cafe BORNI mqh~ lbrny is a cafe located in Kebili, Tunisia. Featuring a 5-star rating, it provides a cozy ambiance for customers to enjoy their favorite beverages and hang out with friends or colleagues. The cafe can be found at the coordinates (33.7053164, 8.9659272), making it easy for locals and visitors alike to locate.</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>For travelers seeking a highly acclaimed cafe with a diverse menu, where should they head to in Kebili and what sets it apart?</t>
+          <t>Day Plan:
+Morning: Explore Ancienne Kebili, an archeological site that offers insights into the region's history and culture.
+Mid-Morning: Visit Oasis de Kebili, a verdant paradise in the heart of the Tunisian desert, and appreciate its natural beauty and resilience.
+Midday: Try local cuisine at mT`m lhdy Hlwf@, a highly-rated restaurant known for its delicious food and cozy ambiance.
+Afternoon: Shop for souvenirs and local products at the bustling Kebili market, immersing yourself in the local culture.
+Evening: Enjoy scenic views at the Station Nationale Louage, offering a panoramic perspective of the Kebili region.
+Night: Relax and unwind at Anasini Siktigimin Restorani, a Turkish restaurant with a warm ambiance, and savor its delectable dishes.</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in Kebili, mT`m lhdy Hlwf@ is a restaurant with a rating of 4.7 based on 3 reviews. It opens from Tuesday to Saturday from 09:25-16:40. Its main category is Restaurant and it offers a variety of dining options. It is located at the coordinates (33.7053164, 8.9659272).
+Cafe BORNI mqh~ lbrny is a cafe located in Kebili, Tunisia. Featuring a 5-star rating, it provides a cozy ambiance for customers to enjoy their favorite beverages and hang out with friends or colleagues. The cafe can be found at the coordinates (33.7053164, 8.9659272), making it easy for locals and visitors alike to locate.
+THE HOUSE is a tea room located at Kebili (8.9659272, 33.7053164), offering a cozy ambiance and a wide variety of teas.
+Fast food mohedinne is a restaurant located in Kebili, Tunisia. It offers Tunisian cuisine and is highly rated by customers, with a 4.5/5 rating from 2 reviews.
+The restaurant is open 24/7 and can be reached at 23 587 037. It is located at the following address: Fast food mohedinne, 4200, Kebili 4200.
+Upfood Kebili is a fast-food restaurant located in Kebili, Tunisia. It is known for its 5-star rating and its wide variety of fast-food options. The restaurant is located at the coordinates (33.702780775761, 8.971607490048), on Rue de la liberte.
+Les Amis du Camping is a campground located in Kebili, Tunisia. It offers a range of accommodations, including bungalows and campsites, and has a 4.7-star rating on Google. The campground is located at coordinates (33.699475328016, 8.966757671246) and is open year-round.
+Nestled in the heart of the Tunisian desert, Oasis de Kebili is a verdant paradise that serves as a refuge from the surrounding arid landscapes. This agricultural oasis boasts a vibrant ecosystem, showcasing the natural beauty and resilience of the region. Its convenient location, within the city of Kebili, makes it easily accessible to those seeking respite and tranquility amidst the unforgiving terrain.
+Ancienne Kebili is an archeological site located in Kebili, Tunisia. Situated at the coordinates (33.7053164, 8.9659272), it offers visitors the opportunity to explore the rich history and culture of the region. The site boasts 3 reviews, with an average rating of 3.7 reflecting its popularity among travelers.
+Located in Kebili, Anasini Siktigimin Restorani is a highly-rated Turkish restaurant offering delicious food and a warm ambiance. The restaurant is open 24 hours a day and offers a cozy and comfortable dining experience. Whether you're craving traditional Turkish dishes or looking for a casual meal, Anasini Siktigimin Restorani is a great option.
+Pizzaria Olivier is a pizzeria located in Kebili, Tunisia. The pizzeria is open from 9:30am to 10:30pm and is closed on none. Pizzaria Olivier has a rating of 4.0 out of 5 on Google and has received 5 reviews. The pizzeria's featured image is a photo of the exterior of the building and the main category is Pizzeria. The pizzeria's website is not available. The pizzeria's owner is not available. The pizzeria's phone number is 99 102 203 and the address is PX49+65G Pizzaria Olivier, Kebili. The pizzeria's coordinates are (33.7053164, 8.9659272).
+The Station Nationale Louage is a transport service located at PX8F+QR6, Kebili, Tunisia. It is characterized by its rating of 4.0 out of 5, garnered from four reviews. Situated at the coordinates (33.7053164, 8.9659272), this station's services and amenities, as well as its precise location, make it a significant point of interest within the Kebili region.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2185,14 +2818,56 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>If you're in kebili and looking for something fun to do, check out Les Amis du Camping located at Av. Salah Ben Youssef. 
-This top-rated destination is perfect for Terrain de camping lovers. 
-With a rating of 4.7, it's a must-visit spot.  To get there, use these GPS coordinates: 33.699475328016, 8.966757671246. For more details, visit their website at https://www.facebook.com/profile.php%3Fid%3D100083827250701 or call them at 98 567 663.</t>
+          <t>Les Amis du Camping is a campground located in Kebili, Tunisia. It offers a range of accommodations, including bungalows and campsites, and has a 4.7-star rating on Google. The campground is located at coordinates (33.699475328016, 8.966757671246) and is open year-round.</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>Where can you find the highly rated Les Amis du Camping in Kebili, known for its exceptional Terrain de camping experience?</t>
+          <t>Day Plan:
+Morning: Explore the ancient ruins of Ancienne Kebili, a site boasting rich history and culture.
+Mid-Morning: Indulge in the authentic flavors of Tunisian cuisine at Fast food mohedinne, a highly-rated restaurant offering a wide variety of local dishes.
+Midday: Visit Oasis de Kebili, a verdant paradise in the heart of the desert, where you can escape the arid landscapes and immerse yourself in nature's beauty.
+Afternoon: Relax and rejuvenate with a traditional tea ceremony at THE HOUSE, a charming tea room renowned for its cozy ambiance and extensive tea selection.
+Evening: Experience the warm Turkish hospitality and savor delicious cuisine at Anasini Siktigimin Restorani, a highly-rated Turkish restaurant offering a cozy and comfortable dining experience.
+Night: Head to Café BORNI mqh~ lbrny, a popular local café with a 5-star rating, to enjoy your favorite beverages and socialize with locals and fellow travelers in a cozy ambiance.</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant PARADISIO is a highly-rated restaurant located in Kebili with a 4.2-star rating. It is open from 9:00 AM to 10:00 PM Monday through Saturday, but is closed on Sundays. The restaurant's primary category is Restaurant and its coordinates are (49.1407729, 6.8074876).
+Cafe BORNI mqh~ lbrny is a cafe located in Kebili, Tunisia. Featuring a 5-star rating, it provides a cozy ambiance for customers to enjoy their favorite beverages and hang out with friends or colleagues. The cafe can be found at the coordinates (33.7053164, 8.9659272), making it easy for locals and visitors alike to locate.
+THE HOUSE is a tea room located at Kebili (8.9659272, 33.7053164), offering a cozy ambiance and a wide variety of teas.
+Fast food mohedinne is a Tunisian restaurant located in Kebili, Tunisia. It is open 24 hours a day and has a rating of 4.5 stars. The restaurant offers a variety of Tunisian dishes, and is located at 33.6915496, 9.0030868.
+Upfood Kebili, a fast-food restaurant located in Kebili, offers a range of quick and convenient meals. Its precise location is at 33.702780775761 latitude and 8.971607490048 longitude.
+Les Amis du Camping is a campground located in Kebili, Tunisia. It offers a range of accommodations, including bungalows and campsites, and has a 4.7-star rating on Google. The campground is located at coordinates (33.699475328016, 8.966757671246) and is open year-round.
+Nestled in the heart of the Tunisian desert, Oasis de Kebili is a verdant paradise that serves as a refuge from the surrounding arid landscapes. This agricultural oasis boasts a vibrant ecosystem, showcasing the natural beauty and resilience of the region. Its convenient location, within the city of Kebili, makes it easily accessible to those seeking respite and tranquility amidst the unforgiving terrain.
+Ancienne Kebili is an archeological site located in Kebili, Tunisia. Situated at the coordinates (33.7053164, 8.9659272), it offers visitors the opportunity to explore the rich history and culture of the region. The site boasts 3 reviews, with an average rating of 3.7 reflecting its popularity among travelers.
+Located in Kebili, Anasini Siktigimin Restorani is a highly-rated Turkish restaurant offering delicious food and a warm ambiance. The restaurant is open 24 hours a day and offers a cozy and comfortable dining experience. Whether you're craving traditional Turkish dishes or looking for a casual meal, Anasini Siktigimin Restorani is a great option.
+Pizzaria Olivier is a pizzeria located in Kebili, Tunisia. The pizzeria is open from 9:30am to 10:30pm and is closed on none. Pizzaria Olivier has a rating of 4.0 out of 5 on Google and has received 5 reviews. The pizzeria's featured image is a photo of the exterior of the building and the main category is Pizzeria. The pizzeria's website is not available. The pizzeria's owner is not available. The pizzeria's phone number is 99 102 203 and the address is PX49+65G Pizzaria Olivier, Kebili. The pizzeria's coordinates are (33.7053164, 8.9659272).
+Station Nationale Louage Kebili is a transport service located in Kebili, Tunisia. It is situated at the coordinates (33.7053164, 8.9659272) and has a 4.0 rating out of 4 reviews. The phone number for the station is 75 491 213 and its address is PX8F+QR6 Station Nationale Louage Kebili, Kebili.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2290,12 +2965,57 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>If you're in kebili and looking for something fun to do, check out Oasis de Kebili located at Oasis de Kebili. This top-rated destination is perfect for Agricultural lovers and offers a range of Agricultural to choose from. With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 33.48333, 8.98333. For more details, visit their website at https://www.google.com/maps/place/Oasis+de+K%C3%A9bili/data=!4m7!3m6!1s0x12566f06b8ee697b:0xd50d01914dfc38a3!8m2!3d33.6909224!4d8.9659399!16s%2Fg%2F11_shps1g!19sChIJe2nuuAZvVhIRozj8TZEBDdU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Nestled in the heart of the Tunisian desert, Oasis de Kebili is a verdant paradise that serves as a refuge from the surrounding arid landscapes. This agricultural oasis boasts a vibrant ecosystem, showcasing the natural beauty and resilience of the region. Its convenient location, within the city of Kebili, makes it easily accessible to those seeking respite and tranquility amidst the unforgiving terrain.</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>What is the top-rated Agricultural destination in kebili with GPS coordinates of 33.48333, 8.98333?</t>
+          <t>Day Plan:
+Morning: Explore Oasis de Kebili, a verdant paradise in the heart of the Tunisian desert, showcasing the natural beauty and resilience of the region.
+Mid-Morning: Visit Ancienne Kebili, an archeological site offering visitors a chance to explore the rich history and culture of the region.
+Midday: Try local cuisine at Bon Gusto, a restaurant offering a delightful dining experience with positive reviews and a rating of 4.2 out of 5.
+Afternoon: Enjoy scenic views at Les Amis du Camping, a campground with a 4.7-star rating on Google, offering accommodations and a tranquil ambiance.
+Evening: Participate in an event or activity at The Gouna cite, a highly-rated café with a cozy ambiance and a great reputation.
+Night: Relax with a traditional Turkish meal at Anasini Siktigimin Restorani, a highly-rated restaurant offering delicious food and a warm ambiance.</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Bon Gusto is a restaurant located in Kebili, Tunisia, offering a delightful dining experience to its customers. It is situated at the coordinates (33.7080489, 8.9715127). The restaurant has received positive reviews, earning a rating of 4.2 out of 5 based on 44 reviews. Its primary category is Restaurant.
+The Gouna cite is a cafe located in Kebili, Tunisia on 33.7053164 latitude and 8.9659272 longitude. It has great reviews and is highly rated.
+THE HOUSE is a tea room located at Kebili (8.9659272, 33.7053164), offering a cozy ambiance and a wide variety of teas.
+Fast food mohedinne is a restaurant located in Kebili, Tunisia. It offers Tunisian cuisine and is highly rated by customers, with a 4.5/5 rating from 2 reviews.
+The restaurant is open 24/7 and can be reached at 23 587 037. It is located at the following address: Fast food mohedinne, 4200, Kebili 4200.
+Upfood Kebili, a fast-food restaurant located in Kebili, offers a range of quick and convenient meals. Its precise location is at 33.702780775761 latitude and 8.971607490048 longitude.
+Les Amis du Camping is a campground located in Kebili, Tunisia. It offers a range of accommodations, including bungalows and campsites, and has a 4.7-star rating on Google. The campground is located at coordinates (33.699475328016, 8.966757671246) and is open year-round.
+Nestled in the heart of the Tunisian desert, Oasis de Kebili is a verdant paradise that serves as a refuge from the surrounding arid landscapes. This agricultural oasis boasts a vibrant ecosystem, showcasing the natural beauty and resilience of the region. Its convenient location, within the city of Kebili, makes it easily accessible to those seeking respite and tranquility amidst the unforgiving terrain.
+Ancienne Kebili is an archeological site located in Kebili, Tunisia. Situated at the coordinates (33.7053164, 8.9659272), it offers visitors the opportunity to explore the rich history and culture of the region. The site boasts 3 reviews, with an average rating of 3.7 reflecting its popularity among travelers.
+Located in Kebili, Anasini Siktigimin Restorani is a highly-rated Turkish restaurant offering delicious food and a warm ambiance. The restaurant is open 24 hours a day and offers a cozy and comfortable dining experience. Whether you're craving traditional Turkish dishes or looking for a casual meal, Anasini Siktigimin Restorani is a great option.
+Pizzaria Olivier is a pizzeria located in Kebili, Tunisia. The pizzeria is open from 9:30am to 10:30pm and is closed on none. Pizzaria Olivier has a rating of 4.0 out of 5 on Google and has received 5 reviews. The pizzeria's featured image is a photo of the exterior of the building and the main category is Pizzeria. The pizzeria's website is not available. The pizzeria's owner is not available. The pizzeria's phone number is 99 102 203 and the address is PX49+65G Pizzaria Olivier, Kebili. The pizzeria's coordinates are (33.7053164, 8.9659272).
+The Station Nationale Louage is a transport service located at PX8F+QR6, Kebili, Tunisia. It is characterized by its rating of 4.0 out of 5, garnered from four reviews. Situated at the coordinates (33.7053164, 8.9659272), this station's services and amenities, as well as its precise location, make it a significant point of interest within the Kebili region.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2393,14 +3113,57 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>If you're in Kebili and looking for something fun to do, check out Ancienne Kebili located at MXP9+G37 Ancienne Kebili. 
-This top-rated destination is perfect for site archeologique lovers and offers a range of categories to choose from. 
-With a rating of 3.7, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Ancienne+K%C3%A9bili/data=!4m7!3m6!1s0x12566f076eaaaaab:0x969ed90d0f0d7f45!8m2!3d33.6862909!4d8.9676657!16s%2Fg%2F11kj9096fb!19sChIJq6qqbgdvVhIRRX8NDw3ZnpY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Ancienne Kebili is an archeological site located in Kebili, Tunisia. Situated at the coordinates (33.7053164, 8.9659272), it offers visitors the opportunity to explore the rich history and culture of the region. The site boasts 3 reviews, with an average rating of 3.7 reflecting its popularity among travelers.</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>What top-rated site archeologique is located at MXP9+G37 Ancienne Kebili in Kebili?</t>
+          <t>Day Plan:
+Morning: Explore the ancient ruins of Ancienne Kebili, immersing yourself in the region's rich history.
+Mid-Morning: Indulge in a delicious breakfast of traditional Tunisian cuisine at Fast food mohedinne, while savoring the warm ambiance.
+Midday: Visit Oasis de Kebili, a verdant sanctuary amidst the desert, to appreciate the resilience of the local ecosystem.
+Afternoon: Take a refreshing dip in the clear waters of Les Amis du Camping, enjoying the scenic views and indulging in some water-based recreation.
+Evening: Satisfy your culinary cravings with an authentic Turkish dinner at Anasini Siktigimin Restorani, renowned for its delectable flavors and cozy atmosphere.
+Night: Gaze up at the starlit sky from the campground at Les Amis du Camping, embracing the tranquility and serenity of the desert night under the celestial tapestry.</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Iceberg kebili is a restaurant located in kebili, Tunisia, at coordinates (33.707540673875, 8.970557917498). It has a rating of 4.0 and offers restaurant services.
+Cafe Azur, located at MXXJ+98C Cafe Azur, C206, Kebili (lon:8.9659272, lat:33.7053164), is a cafe with a 4.4-star rating based on 7 reviews. Open from 08:00 to 23:00, Cafe Azur offers a cozy and welcoming ambiance for its customers to relax and enjoy their favorite beverages and snacks.
+THE HOUSE is a tea room located at Kebili (8.9659272, 33.7053164), offering a cozy ambiance and a wide variety of teas.
+Fast food mohedinne is a restaurant located in Kebili, Tunisia. It offers Tunisian cuisine and is highly rated by customers, with a 4.5/5 rating from 2 reviews.
+The restaurant is open 24/7 and can be reached at 23 587 037. It is located at the following address: Fast food mohedinne, 4200, Kebili 4200.
+Upfood Kebili is a fast-food restaurant located in Kebili, Tunisia. It is known for its 5-star rating and its wide variety of fast-food options. The restaurant is located at the coordinates (33.702780775761, 8.971607490048), on Rue de la liberte.
+Les Amis du Camping is a campground located in Kebili, Tunisia. It offers a range of accommodations, including bungalows and campsites, and has a 4.7-star rating on Google. The campground is located at coordinates (33.699475328016, 8.966757671246) and is open year-round.
+Nestled in the heart of the Tunisian desert, Oasis de Kebili is a verdant paradise that serves as a refuge from the surrounding arid landscapes. This agricultural oasis boasts a vibrant ecosystem, showcasing the natural beauty and resilience of the region. Its convenient location, within the city of Kebili, makes it easily accessible to those seeking respite and tranquility amidst the unforgiving terrain.
+Ancienne Kebili is an archeological site located in Kebili, Tunisia. Situated at the coordinates (33.7053164, 8.9659272), it offers visitors the opportunity to explore the rich history and culture of the region. The site boasts 3 reviews, with an average rating of 3.7 reflecting its popularity among travelers.
+Located in Kebili, Anasini Siktigimin Restorani is a highly-rated Turkish restaurant offering delicious food and a warm ambiance. The restaurant is open 24 hours a day and offers a cozy and comfortable dining experience. Whether you're craving traditional Turkish dishes or looking for a casual meal, Anasini Siktigimin Restorani is a great option.
+Pizzaria Olivier is a pizzeria located in Kebili, Tunisia. The pizzeria is open from 9:30am to 10:30pm and is closed on none. Pizzaria Olivier has a rating of 4.0 out of 5 on Google and has received 5 reviews. The pizzeria's featured image is a photo of the exterior of the building and the main category is Pizzeria. The pizzeria's website is not available. The pizzeria's owner is not available. The pizzeria's phone number is 99 102 203 and the address is PX49+65G Pizzaria Olivier, Kebili. The pizzeria's coordinates are (33.7053164, 8.9659272).
+The Station Nationale Louage is a transport service located at PX8F+QR6, Kebili, Tunisia. It is characterized by its rating of 4.0 out of 5, garnered from four reviews. Situated at the coordinates (33.7053164, 8.9659272), this station's services and amenities, as well as its precise location, make it a significant point of interest within the Kebili region.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2506,14 +3269,57 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>If you're in kebili and looking for something fun to do, check out Bon Gusto located at C206, Kebili. 
-This top-rated destination is perfect for Restaurant lovers. 
-With a rating of 4.2, it's a must-visit spot. It's open during these hours: 09:00-01:00. To get there, use these GPS coordinates: 33.7080489, 8.9715127. For more details, visit their link at https://www.google.com/maps/place/Bon+Gusto/data=!4m7!3m6!1s0x12566e591dbdd0f9:0x6c563876708c8d84!8m2!3d33.7080697!4d8.9714938!16s%2Fg%2F12q4xb3rc!19sChIJ-dC9HVluVhIRhI2McHY4Vmw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 22 900 717.</t>
+          <t>Bon Gusto is a restaurant located in Kebili, Tunisia, offering a delightful dining experience to its customers. It is situated at the coordinates (33.7080489, 8.9715127). The restaurant has received positive reviews, earning a rating of 4.2 out of 5 based on 44 reviews. Its primary category is Restaurant.</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>Where in Kebili can you find a highly-rated restaurant called Bon Gusto that is particularly popular among restaurant enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the rich history of Kebili at Ancienne Kebili, an archeological site that offers insights into the region's past.
+Mid-Morning: Indulge in the local flavors of Tunisian cuisine at Fast food mohedinne, a highly-rated restaurant for its authentic dishes.
+Midday: Visit THE HOUSE, a cozy tea room offering a wide variety of teas and a serene ambiance.
+Afternoon: Enjoy the natural beauty of Oasis de Kebili, a lush green paradise amidst the desert landscapes, offering respite and tranquility.
+Evening: Experience the vibrant atmosphere of **mqh~ lnSr**, a top-rated cafe known for its delicious coffee, pastries, and inviting ambiance.
+Night: Savor a delicious Turkish meal at Anasini Siktigimin Restorani, offering authentic dishes and a warm ambiance.</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Bon Gusto is a restaurant located in Kebili, Tunisia. It offers a wide range of dishes, including traditional Tunisian cuisine and international fare. The restaurant is open from 9am to 1am, and is closed on Sundays. Bon Gusto is conveniently located near the city center, and is easily accessible by public transportation.
+**mqh~ lnSr** is a top-rated cafe in Kebili, Tunisia. It offers a cozy and inviting atmosphere, as well as a delicious menu of coffees, teas, and pastries. The cafe is conveniently located at PX3C+XPQ mqh~ lnSr, Kebili, and is open from 03:00-01:00 every day of the week. With its high ratings and positive reviews, **mqh~ lnSr** is a must-visit for coffee lovers in the area.
+THE HOUSE is a tea room located at Kebili (8.9659272, 33.7053164), offering a cozy ambiance and a wide variety of teas.
+Fast food mohedinne is a restaurant located in Kebili, Tunisia. It offers Tunisian cuisine and is highly rated by customers, with a 4.5/5 rating from 2 reviews.
+The restaurant is open 24/7 and can be reached at 23 587 037. It is located at the following address: Fast food mohedinne, 4200, Kebili 4200.
+Upfood Kebili is a fast-food restaurant located in Kebili, Tunisia. It is known for its 5-star rating and its wide variety of fast-food options. The restaurant is located at the coordinates (33.702780775761, 8.971607490048), on Rue de la liberte.
+Les Amis du Camping is a campground located in Kebili, Tunisia. It offers a range of accommodations, including bungalows and campsites, and has a 4.7-star rating on Google. The campground is located at coordinates (33.699475328016, 8.966757671246) and is open year-round.
+Nestled in the heart of the Tunisian desert, Oasis de Kebili is a verdant paradise that serves as a refuge from the surrounding arid landscapes. This agricultural oasis boasts a vibrant ecosystem, showcasing the natural beauty and resilience of the region. Its convenient location, within the city of Kebili, makes it easily accessible to those seeking respite and tranquility amidst the unforgiving terrain.
+Ancienne Kebili is an archeological site located in Kebili, Tunisia. Situated at the coordinates (33.7053164, 8.9659272), it offers visitors the opportunity to explore the rich history and culture of the region. The site boasts 3 reviews, with an average rating of 3.7 reflecting its popularity among travelers.
+Located in Kebili, Anasini Siktigimin Restorani is a highly-rated Turkish restaurant offering delicious food and a warm ambiance. The restaurant is open 24 hours a day and offers a cozy and comfortable dining experience. Whether you're craving traditional Turkish dishes or looking for a casual meal, Anasini Siktigimin Restorani is a great option.
+Pizzaria Olivier is a pizzeria located in Kebili, Tunisia. The pizzeria is open from 9:30am to 10:30pm and is closed on none. Pizzaria Olivier has a rating of 4.0 out of 5 on Google and has received 5 reviews. The pizzeria's featured image is a photo of the exterior of the building and the main category is Pizzeria. The pizzeria's website is not available. The pizzeria's owner is not available. The pizzeria's phone number is 99 102 203 and the address is PX49+65G Pizzaria Olivier, Kebili. The pizzeria's coordinates are (33.7053164, 8.9659272).
+Station Nationale Louage Kebili is a transport service located in Kebili, Tunisia. It is situated at the coordinates (33.7053164, 8.9659272) and has a 4.0 rating out of 4 reviews. The phone number for the station is 75 491 213 and its address is PX8F+QR6 Station Nationale Louage Kebili, Kebili.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2619,12 +3425,63 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>If you're in Kebili and looking for a tasty meal, make sure to visit Restaurant PARADISIO located at PX4C+WVV Restaurant PARADISIO, Kebili. With a rating of 4.2 out of 5, it's a top-rated restaurant. They are open from 09:00-22:00 during the week, but are closed on Sundays.</t>
+          <t>Restaurant PARADISIO, located in Kebili, Tunisia, serves delicious Mediterranean cuisine. The restaurant is open daily from 09:00-22:00. The menu features a wide variety of dishes, including seafood, pasta, salads, and french fries. The restaurant also offers a wide selection of drinks, including beer, wine, and cocktails. The average rating of the restaurant is 4.2 stars out of 5.</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>Question: What is the name and location of the top-rated restaurant in Kebili that is known for its delicious meals?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the historical site of Ancienne Kebili
+**Mid-Morning:**
+* Visit Oasis de Kebili to witness the vibrant ecosystem of the Tunisian desert
+**Midday:**
+* Try local Tunisian cuisine at Fast Food Mohedinne
+**Afternoon:**
+* Enjoy a cozy ambiance and tea variety at The House tea room
+**Evening:**
+* Take a guided tour of the Station Nationale Louage transport hub
+**Night:**
+* Experience Turkish cuisine and warm ambiance at Anasini Siktigimin Restorani</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Bon Gusto is a restaurant located in Kebili, Tunisia, offering a delightful dining experience to its customers. It is situated at the coordinates (33.7080489, 8.9715127). The restaurant has received positive reviews, earning a rating of 4.2 out of 5 based on 44 reviews. Its primary category is Restaurant.
+Cafe BORNI mqh~ lbrny is a cafe located in Kebili, Tunisia. Featuring a 5-star rating, it provides a cozy ambiance for customers to enjoy their favorite beverages and hang out with friends or colleagues. The cafe can be found at the coordinates (33.7053164, 8.9659272), making it easy for locals and visitors alike to locate.
+THE HOUSE is a tea room located at Kebili (8.9659272, 33.7053164), offering a cozy ambiance and a wide variety of teas.
+Fast food mohedinne is a restaurant located in Kebili, Tunisia. It offers Tunisian cuisine and is highly rated by customers, with a 4.5/5 rating from 2 reviews.
+The restaurant is open 24/7 and can be reached at 23 587 037. It is located at the following address: Fast food mohedinne, 4200, Kebili 4200.
+Upfood Kebili, a fast-food restaurant located in Kebili, offers a range of quick and convenient meals. Its precise location is at 33.702780775761 latitude and 8.971607490048 longitude.
+Les Amis du Camping is a campground located in Kebili, Tunisia. It offers a range of accommodations, including bungalows and campsites, and has a 4.7-star rating on Google. The campground is located at coordinates (33.699475328016, 8.966757671246) and is open year-round.
+Nestled in the heart of the Tunisian desert, Oasis de Kebili is a verdant paradise that serves as a refuge from the surrounding arid landscapes. This agricultural oasis boasts a vibrant ecosystem, showcasing the natural beauty and resilience of the region. Its convenient location, within the city of Kebili, makes it easily accessible to those seeking respite and tranquility amidst the unforgiving terrain.
+Ancienne Kebili is an archeological site located in Kebili, Tunisia. Situated at the coordinates (33.7053164, 8.9659272), it offers visitors the opportunity to explore the rich history and culture of the region. The site boasts 3 reviews, with an average rating of 3.7 reflecting its popularity among travelers.
+Located in Kebili, Anasini Siktigimin Restorani is a highly-rated Turkish restaurant offering delicious food and a warm ambiance. The restaurant is open 24 hours a day and offers a cozy and comfortable dining experience. Whether you're craving traditional Turkish dishes or looking for a casual meal, Anasini Siktigimin Restorani is a great option.
+Pizzaria Olivier is a pizzeria located in Kebili, Tunisia. The pizzeria is open from 9:30am to 10:30pm and is closed on none. Pizzaria Olivier has a rating of 4.0 out of 5 on Google and has received 5 reviews. The pizzeria's featured image is a photo of the exterior of the building and the main category is Pizzeria. The pizzeria's website is not available. The pizzeria's owner is not available. The pizzeria's phone number is 99 102 203 and the address is PX49+65G Pizzaria Olivier, Kebili. The pizzeria's coordinates are (33.7053164, 8.9659272).
+The Station Nationale Louage is a transport service located at PX8F+QR6, Kebili, Tunisia. It is characterized by its rating of 4.0 out of 5, garnered from four reviews. Situated at the coordinates (33.7053164, 8.9659272), this station's services and amenities, as well as its precise location, make it a significant point of interest within the Kebili region.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2722,12 +3579,57 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>If you're in kebili and looking for something fun to do, check out Anasini Siktigimin Restorani located at PX4C+R7F Anasini Siktigimin Restorani, Kebili. This top-rated destination is perfect for Restaurant turc lovers and offers a range of Restaurant turc to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on []. To get there, use these GPS coordinates: 33.7053164, 8.9659272. For more details, visit their website at https://www.google.com/maps/place/Anas%C4%B1n%C4%B1+Sikti%C4%9Fimin+Restoran%C4%B1/data=!4m7!3m6!1s0x12566fe4ab8fb583:0xb2a03a0f4131a0da!8m2!3d33.7069694!4d8.9706665!16s%2Fg%2F11s9xkdv80!19sChIJg7WPq-RvVhIR2qAxQQ86oLI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Located in Kebili, Anasini Siktigimin Restorani is a highly-rated Turkish restaurant offering delicious food and a warm ambiance. The restaurant is open 24 hours a day and offers a cozy and comfortable dining experience. Whether you're craving traditional Turkish dishes or looking for a casual meal, Anasini Siktigimin Restorani is a great option.</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Restaurant turc restaurant in Kebili that's open 24 hours a day?</t>
+          <t>Day Plan:
+Morning: Explore the historical significance of Ancienne Kebili, an archaeological site teeming with rich cultural heritage.
+Mid-Morning: Indulge in the vibrant flavors of Tunisian cuisine at Fast Food Mohedinne, a highly-rated restaurant renowned for its authentic dishes.
+Midday: Seek respite at Oasis de Kebili, a verdant haven amidst the desert landscape, offering tranquility and scenic beauty.
+Afternoon: Visit Cafe Bayka, a 5-star rated café known for its cozy ambiance and array of amenities, where you can savor a delightful cup of coffee and connect with locals.
+Evening: Experience the lively atmosphere of Les Amis du Camping, a campground with a 4.7-star rating, offering comfortable accommodations and engaging activities.
+Night: Conclude your day with a memorable dinner at Anasini Siktigimin Restorani, a Turkish restaurant acclaimed for its delicious food and warm ambiance.</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant PARADISIO, located in Kebili, Tunisia, serves delicious Mediterranean cuisine. The restaurant is open daily from 09:00-22:00. The menu features a wide variety of dishes, including seafood, pasta, salads, and french fries. The restaurant also offers a wide selection of drinks, including beer, wine, and cocktails. The average rating of the restaurant is 4.2 stars out of 5.
+**Cafe Bayka** is a 5-star rated cafe located in kebili with the coordinates (33.7053164, 8.9659272). It offers a wide range of services and amenities, including but not limited to: free Wi-Fi, air conditioning, and a cozy atmosphere. It is the perfect place to relax and enjoy a hot cup of coffee with friends.
+THE HOUSE is a tea room located at Kebili (8.9659272, 33.7053164), offering a cozy ambiance and a wide variety of teas.
+Fast food mohedinne is a restaurant located in Kebili, Tunisia. It offers Tunisian cuisine and is highly rated by customers, with a 4.5/5 rating from 2 reviews.
+The restaurant is open 24/7 and can be reached at 23 587 037. It is located at the following address: Fast food mohedinne, 4200, Kebili 4200.
+Upfood Kebili is a fast-food restaurant located in Kebili, Tunisia. It is known for its 5-star rating and its wide variety of fast-food options. The restaurant is located at the coordinates (33.702780775761, 8.971607490048), on Rue de la liberte.
+Les Amis du Camping is a campground located in Kebili, Tunisia. It offers a range of accommodations, including bungalows and campsites, and has a 4.7-star rating on Google. The campground is located at coordinates (33.699475328016, 8.966757671246) and is open year-round.
+Nestled in the heart of the Tunisian desert, Oasis de Kebili is a verdant paradise that serves as a refuge from the surrounding arid landscapes. This agricultural oasis boasts a vibrant ecosystem, showcasing the natural beauty and resilience of the region. Its convenient location, within the city of Kebili, makes it easily accessible to those seeking respite and tranquility amidst the unforgiving terrain.
+Ancienne Kebili is an archeological site located in Kebili, Tunisia. Situated at the coordinates (33.7053164, 8.9659272), it offers visitors the opportunity to explore the rich history and culture of the region. The site boasts 3 reviews, with an average rating of 3.7 reflecting its popularity among travelers.
+Located in Kebili, Anasini Siktigimin Restorani is a highly-rated Turkish restaurant offering delicious food and a warm ambiance. The restaurant is open 24 hours a day and offers a cozy and comfortable dining experience. Whether you're craving traditional Turkish dishes or looking for a casual meal, Anasini Siktigimin Restorani is a great option.
+Pizzaria Olivier is a pizzeria located in Kebili, Tunisia. The pizzeria is open from 9:30am to 10:30pm and is closed on none. Pizzaria Olivier has a rating of 4.0 out of 5 on Google and has received 5 reviews. The pizzeria's featured image is a photo of the exterior of the building and the main category is Pizzeria. The pizzeria's website is not available. The pizzeria's owner is not available. The pizzeria's phone number is 99 102 203 and the address is PX49+65G Pizzaria Olivier, Kebili. The pizzeria's coordinates are (33.7053164, 8.9659272).
+The Station Nationale Louage is a transport service located at PX8F+QR6, Kebili, Tunisia. It is characterized by its rating of 4.0 out of 5, garnered from four reviews. Situated at the coordinates (33.7053164, 8.9659272), this station's services and amenities, as well as its precise location, make it a significant point of interest within the Kebili region.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2833,12 +3735,56 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>If you're in kebili and looking for a top-rated spot, check out Pizzaria Olivier at PX49+65G, Kebili. This Pizzeria is perfect for Pizzeria lovers and has a rating of 4.0. It's open from 09:30-22:30 during the week. To get there, use these GPS coordinates: 33.7053164, 8.9659272. For more details, visit their website or call them at 99 102 203.</t>
+          <t>Pizzaria Olivier is a pizzeria located in Kebili, Tunisia. The pizzeria is open from 9:30am to 10:30pm and is closed on none. Pizzaria Olivier has a rating of 4.0 out of 5 on Google and has received 5 reviews. The pizzeria's featured image is a photo of the exterior of the building and the main category is Pizzeria. The pizzeria's website is not available. The pizzeria's owner is not available. The pizzeria's phone number is 99 102 203 and the address is PX49+65G Pizzaria Olivier, Kebili. The pizzeria's coordinates are (33.7053164, 8.9659272).</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Pizzeria with GPS coordinates 33.7053164, 8.9659272 in the Kebili area?</t>
+          <t>Day Plan:
+Morning: Explore Oasis de Kebili, a verdant paradise nestled amidst the Tunisian desert.
+Mid-Morning: Visit Ancienne Kebili, an archeological site that offers a glimpse into the rich history and culture of the region.
+Midday: Try local cuisine at Restaurant PARADISIO, a highly-rated restaurant offering a 4.2-star dining experience.
+Afternoon: Engage in outdoor activities at Les Amis du Camping, a campground with a 4.7-star rating and a range of accommodations and activities.
+Evening: Enjoy scenic views and cultural immersion at the Le theatre cafe-resto, a cafe offering a cozy ambiance and a taste of local culture.
+Night: Experience Turkish cuisine at Anasini Siktigimin Restorani, a highly-rated restaurant offering delicious food and a warm ambiance.</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant PARADISIO is a highly-rated restaurant located in Kebili with a 4.2-star rating. It is open from 9:00 AM to 10:00 PM Monday through Saturday, but is closed on Sundays. The restaurant's primary category is Restaurant and its coordinates are (49.1407729, 6.8074876).
+Le theatre cafe-resto is located in Kebili, Tunisia at longitude 8.9659272 and latitude 33.7053164. It has a rating of 4.0 and offers cafe services. The phone number is 55 987 094.
+THE HOUSE is a tea room located at Kebili (8.9659272, 33.7053164), offering a cozy ambiance and a wide variety of teas.
+Fast food mohedinne is a Tunisian restaurant located in Kebili, Tunisia. It is open 24 hours a day and has a rating of 4.5 stars. The restaurant offers a variety of Tunisian dishes, and is located at 33.6915496, 9.0030868.
+Upfood Kebili, a fast-food restaurant located in Kebili, offers a range of quick and convenient meals. Its precise location is at 33.702780775761 latitude and 8.971607490048 longitude.
+Les Amis du Camping is a campground located in Kebili, Tunisia. It offers a range of accommodations, including bungalows and campsites, and has a 4.7-star rating on Google. The campground is located at coordinates (33.699475328016, 8.966757671246) and is open year-round.
+Nestled in the heart of the Tunisian desert, Oasis de Kebili is a verdant paradise that serves as a refuge from the surrounding arid landscapes. This agricultural oasis boasts a vibrant ecosystem, showcasing the natural beauty and resilience of the region. Its convenient location, within the city of Kebili, makes it easily accessible to those seeking respite and tranquility amidst the unforgiving terrain.
+Ancienne Kebili is an archeological site located in Kebili, Tunisia. Situated at the coordinates (33.7053164, 8.9659272), it offers visitors the opportunity to explore the rich history and culture of the region. The site boasts 3 reviews, with an average rating of 3.7 reflecting its popularity among travelers.
+Located in Kebili, Anasini Siktigimin Restorani is a highly-rated Turkish restaurant offering delicious food and a warm ambiance. The restaurant is open 24 hours a day and offers a cozy and comfortable dining experience. Whether you're craving traditional Turkish dishes or looking for a casual meal, Anasini Siktigimin Restorani is a great option.
+Pizzaria Olivier is a pizzeria located in Kebili, Tunisia. The pizzeria is open from 9:30am to 10:30pm and is closed on none. Pizzaria Olivier has a rating of 4.0 out of 5 on Google and has received 5 reviews. The pizzeria's featured image is a photo of the exterior of the building and the main category is Pizzeria. The pizzeria's website is not available. The pizzeria's owner is not available. The pizzeria's phone number is 99 102 203 and the address is PX49+65G Pizzaria Olivier, Kebili. The pizzeria's coordinates are (33.7053164, 8.9659272).
+Station Nationale Louage Kebili is a transport service located in Kebili, Tunisia. It is situated at the coordinates (33.7053164, 8.9659272) and has a 4.0 rating out of 4 reviews. The phone number for the station is 75 491 213 and its address is PX8F+QR6 Station Nationale Louage Kebili, Kebili.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2936,12 +3882,57 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>If you're in kebili and looking for a delicious meal, check out Restaurant Ahmed located at PX4C+5W2 Av. Nalout. This top-rated restaurant is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 06:30-00:00, but closed on dimanche. To get there, use these GPS coordinates: 33.7054307, 8.9722181.</t>
+          <t>Restaurant Ahmed is a highly-rated restaurant located in Kebili, Tunisia. It offers a variety of dishes and has received positive reviews for its quality. The restaurant is open from 06:30 to 00:00 every day except Sunday. It is located at 33.7054307, 8.9722181.</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>If you're in Kebili and seeking an exceptional dining experience, what highly-rated restaurant, known for its delectable menu, is conveniently located at PX4C+5W2 Av. Nalout?</t>
+          <t>Day Plan:
+Morning: Exploring Oasis de Kebili - Discover the beauty of the verdant oasis and witness the resilience of nature amidst the desert landscapes.
+Mid-Morning: Trying local cuisine at Anasini Siktigimin Restorani - Indulge in authentic Turkish flavors and enjoy a hearty and authentic breakfast to fuel your day.
+Midday: Relaxing with a guided tour of Ancienne Kebili - Immerse yourself in the rich history of the region and explore the archaeological site, uncovering the captivating past of Kebili.
+Afternoon: Enjoying panoramic views at Upfood Kebili - Delight in a quick and convenient lunch while taking in the scenic views of the city from the restaurant's vantage point.
+Evening: Exploring cultural immersion at Station Nationale Louage Kebili - Experience the vibrant local culture, interact with friendly locals, and observe the bustling atmosphere of the transport hub.
+Night: Experiencing the local cuisine at Fast food mohedinne - Immerse your taste buds in traditional Tunisian flavors and savor the highly rated and delectable dishes offered at this renowned restaurant.</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Iceberg kebili is a restaurant located in kebili, Tunisia, at coordinates (33.707540673875, 8.970557917498). It has a rating of 4.0 and offers restaurant services.
+Cafe Azur, located at MXXJ+98C Cafe Azur, C206, Kebili (lon:8.9659272, lat:33.7053164), is a cafe with a 4.4-star rating based on 7 reviews. Open from 08:00 to 23:00, Cafe Azur offers a cozy and welcoming ambiance for its customers to relax and enjoy their favorite beverages and snacks.
+THE HOUSE is a tea room located at Kebili (8.9659272, 33.7053164), offering a cozy ambiance and a wide variety of teas.
+Fast food mohedinne is a restaurant located in Kebili, Tunisia. It offers Tunisian cuisine and is highly rated by customers, with a 4.5/5 rating from 2 reviews.
+The restaurant is open 24/7 and can be reached at 23 587 037. It is located at the following address: Fast food mohedinne, 4200, Kebili 4200.
+Upfood Kebili, a fast-food restaurant located in Kebili, offers a range of quick and convenient meals. Its precise location is at 33.702780775761 latitude and 8.971607490048 longitude.
+Les Amis du Camping is a campground located in Kebili, Tunisia. It offers a range of accommodations, including bungalows and campsites, and has a 4.7-star rating on Google. The campground is located at coordinates (33.699475328016, 8.966757671246) and is open year-round.
+Nestled in the heart of the Tunisian desert, Oasis de Kebili is a verdant paradise that serves as a refuge from the surrounding arid landscapes. This agricultural oasis boasts a vibrant ecosystem, showcasing the natural beauty and resilience of the region. Its convenient location, within the city of Kebili, makes it easily accessible to those seeking respite and tranquility amidst the unforgiving terrain.
+Ancienne Kebili is an archeological site located in Kebili, Tunisia. Situated at the coordinates (33.7053164, 8.9659272), it offers visitors the opportunity to explore the rich history and culture of the region. The site boasts 3 reviews, with an average rating of 3.7 reflecting its popularity among travelers.
+Located in Kebili, Anasini Siktigimin Restorani is a highly-rated Turkish restaurant offering delicious food and a warm ambiance. The restaurant is open 24 hours a day and offers a cozy and comfortable dining experience. Whether you're craving traditional Turkish dishes or looking for a casual meal, Anasini Siktigimin Restorani is a great option.
+Pizzaria Olivier is a pizzeria located in Kebili, Tunisia. The pizzeria is open from 9:30am to 10:30pm and is closed on none. Pizzaria Olivier has a rating of 4.0 out of 5 on Google and has received 5 reviews. The pizzeria's featured image is a photo of the exterior of the building and the main category is Pizzeria. The pizzeria's website is not available. The pizzeria's owner is not available. The pizzeria's phone number is 99 102 203 and the address is PX49+65G Pizzaria Olivier, Kebili. The pizzeria's coordinates are (33.7053164, 8.9659272).
+Station Nationale Louage Kebili is a transport service located in Kebili, Tunisia. It is situated at the coordinates (33.7053164, 8.9659272) and has a 4.0 rating out of 4 reviews. The phone number for the station is 75 491 213 and its address is PX8F+QR6 Station Nationale Louage Kebili, Kebili.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3047,12 +4038,56 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>If you're in kebili and looking for something fun to do, check out Iceberg kebili located at PX49+65J Iceberg kebili, Av. des Martyrs, Qibili. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 07:00-23:00, but closed on []. To get there, use these GPS coordinates: 33.707540673875, 8.970557917498. For more details, visit their website at  or call them at 27 758 914.</t>
+          <t>Iceberg kebili is a restaurant located in kebili, Tunisia, at coordinates (33.707540673875, 8.970557917498). It has a rating of 4.0 and offers restaurant services.</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>Where in Kebili can you find a highly rated restaurant destination, Iceberg Kebili, perfect for Restaurant enthusiasts, boasting a 4.0 rating?</t>
+          <t>Day Plan:
+Morning: Exploring Oasis de Kebili
+Mid-Morning: Trying local cuisine at Restaurant PARADISIO
+Midday: Visiting Ancienne Kebili
+Afternoon: Participating in a cultural immersion at THE HOuSE
+Evening: Enjoying scenic views at Station Nationale Louage Kebili
+Night: Relaxing with a traditional Turkish meal at Anasini Siktigimin Restorani</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant PARADISIO, located in Kebili, Tunisia, serves delicious Mediterranean cuisine. The restaurant is open daily from 09:00-22:00. The menu features a wide variety of dishes, including seafood, pasta, salads, and french fries. The restaurant also offers a wide selection of drinks, including beer, wine, and cocktails. The average rating of the restaurant is 4.2 stars out of 5.
+The Gouna cite is a cafe located in Kebili, Tunisia on 33.7053164 latitude and 8.9659272 longitude. It has great reviews and is highly rated.
+THE HOUSE is a tea room located at Kebili (8.9659272, 33.7053164), offering a cozy ambiance and a wide variety of teas.
+Fast food mohedinne is a Tunisian restaurant located in Kebili, Tunisia. It is open 24 hours a day and has a rating of 4.5 stars. The restaurant offers a variety of Tunisian dishes, and is located at 33.6915496, 9.0030868.
+Upfood Kebili is a fast-food restaurant located in Kebili, Tunisia. It is known for its 5-star rating and its wide variety of fast-food options. The restaurant is located at the coordinates (33.702780775761, 8.971607490048), on Rue de la liberte.
+Les Amis du Camping is a campground located in Kebili, Tunisia. It offers a range of accommodations, including bungalows and campsites, and has a 4.7-star rating on Google. The campground is located at coordinates (33.699475328016, 8.966757671246) and is open year-round.
+Nestled in the heart of the Tunisian desert, Oasis de Kebili is a verdant paradise that serves as a refuge from the surrounding arid landscapes. This agricultural oasis boasts a vibrant ecosystem, showcasing the natural beauty and resilience of the region. Its convenient location, within the city of Kebili, makes it easily accessible to those seeking respite and tranquility amidst the unforgiving terrain.
+Ancienne Kebili is an archeological site located in Kebili, Tunisia. Situated at the coordinates (33.7053164, 8.9659272), it offers visitors the opportunity to explore the rich history and culture of the region. The site boasts 3 reviews, with an average rating of 3.7 reflecting its popularity among travelers.
+Located in Kebili, Anasini Siktigimin Restorani is a highly-rated Turkish restaurant offering delicious food and a warm ambiance. The restaurant is open 24 hours a day and offers a cozy and comfortable dining experience. Whether you're craving traditional Turkish dishes or looking for a casual meal, Anasini Siktigimin Restorani is a great option.
+Pizzaria Olivier is a pizzeria located in Kebili, Tunisia. The pizzeria is open from 9:30am to 10:30pm and is closed on none. Pizzaria Olivier has a rating of 4.0 out of 5 on Google and has received 5 reviews. The pizzeria's featured image is a photo of the exterior of the building and the main category is Pizzeria. The pizzeria's website is not available. The pizzeria's owner is not available. The pizzeria's phone number is 99 102 203 and the address is PX49+65G Pizzaria Olivier, Kebili. The pizzeria's coordinates are (33.7053164, 8.9659272).
+Station Nationale Louage Kebili is a transport service located in Kebili, Tunisia. It is situated at the coordinates (33.7053164, 8.9659272) and has a 4.0 rating out of 4 reviews. The phone number for the station is 75 491 213 and its address is PX8F+QR6 Station Nationale Louage Kebili, Kebili.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3154,12 +4189,57 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>If you're in kebili and looking for something fun to do, check out mT`m lhdy Hlwf@ located at PX4C+R56 mT`m lhdy Hlwf@, Av. du Grand Maghreb, Kebili. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 09:25-16:40, but closed on lundi, dimanche. To get there, use these GPS coordinates: 33.7053164, 8.9659272. For more details, visit their website at https://www.google.com/maps/place/%D9%85%D8%B7%D8%B9%D9%85+%D8%A7%D9%84%D9%87%D8%A7%D8%AF%D9%8A+%D8%AD%D9%84%D9%88%D9%81%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x12566e585ed724e1:0xf8d4713df748ccf1!8m2!3d33.7070416!4d8.9703922!16s%2Fg%2F11gf45ymh5!19sChIJ4STXXlhuVhIR8cxI9z1x1Pg?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Located in Kebili, mT`m lhdy Hlwf@ is a restaurant with a rating of 4.7 based on 3 reviews. It opens from Tuesday to Saturday from 09:25-16:40. Its main category is Restaurant and it offers a variety of dining options. It is located at the coordinates (33.7053164, 8.9659272).</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Restaurant destination with a variety of Restaurant categories in Kebili?</t>
+          <t>Day Plan:
+Morning: Exploring Oasis de Kebili, a verdant paradise in the heart of the Tunisian desert.
+Mid-Morning: Trying local cuisine at Iceberg Kebili, a restaurant offering delicious Tunisian dishes.
+Midday: Visiting Ancienne Kebili, an archeological site uncovering the rich history and culture of the region.
+Afternoon: Enjoying a cozy ambiance and a wide variety of teas at THE HOUSE, a charming tea room.
+Evening: Experiencing cultural immersion at Cafe Bayka, a 5-star rated cafe with a cozy atmosphere.
+Night: Relaxing with a hot cup of coffee and soaking in the vibrant atmosphere of Cafe Bayka.</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Iceberg kebili is a restaurant located in kebili, Tunisia, at coordinates (33.707540673875, 8.970557917498). It has a rating of 4.0 and offers restaurant services.
+**Cafe Bayka** is a 5-star rated cafe located in kebili with the coordinates (33.7053164, 8.9659272). It offers a wide range of services and amenities, including but not limited to: free Wi-Fi, air conditioning, and a cozy atmosphere. It is the perfect place to relax and enjoy a hot cup of coffee with friends.
+THE HOUSE is a tea room located at Kebili (8.9659272, 33.7053164), offering a cozy ambiance and a wide variety of teas.
+Fast food mohedinne is a restaurant located in Kebili, Tunisia. It offers Tunisian cuisine and is highly rated by customers, with a 4.5/5 rating from 2 reviews.
+The restaurant is open 24/7 and can be reached at 23 587 037. It is located at the following address: Fast food mohedinne, 4200, Kebili 4200.
+Upfood Kebili is a fast-food restaurant located in Kebili, Tunisia. It is known for its 5-star rating and its wide variety of fast-food options. The restaurant is located at the coordinates (33.702780775761, 8.971607490048), on Rue de la liberte.
+Les Amis du Camping is a campground located in Kebili, Tunisia. It offers a range of accommodations, including bungalows and campsites, and has a 4.7-star rating on Google. The campground is located at coordinates (33.699475328016, 8.966757671246) and is open year-round.
+Nestled in the heart of the Tunisian desert, Oasis de Kebili is a verdant paradise that serves as a refuge from the surrounding arid landscapes. This agricultural oasis boasts a vibrant ecosystem, showcasing the natural beauty and resilience of the region. Its convenient location, within the city of Kebili, makes it easily accessible to those seeking respite and tranquility amidst the unforgiving terrain.
+Ancienne Kebili is an archeological site located in Kebili, Tunisia. Situated at the coordinates (33.7053164, 8.9659272), it offers visitors the opportunity to explore the rich history and culture of the region. The site boasts 3 reviews, with an average rating of 3.7 reflecting its popularity among travelers.
+Located in Kebili, Anasini Siktigimin Restorani is a highly-rated Turkish restaurant offering delicious food and a warm ambiance. The restaurant is open 24 hours a day and offers a cozy and comfortable dining experience. Whether you're craving traditional Turkish dishes or looking for a casual meal, Anasini Siktigimin Restorani is a great option.
+Pizzaria Olivier is a pizzeria located in Kebili, Tunisia. The pizzeria is open from 9:30am to 10:30pm and is closed on none. Pizzaria Olivier has a rating of 4.0 out of 5 on Google and has received 5 reviews. The pizzeria's featured image is a photo of the exterior of the building and the main category is Pizzeria. The pizzeria's website is not available. The pizzeria's owner is not available. The pizzeria's phone number is 99 102 203 and the address is PX49+65G Pizzaria Olivier, Kebili. The pizzeria's coordinates are (33.7053164, 8.9659272).
+The Station Nationale Louage is a transport service located at PX8F+QR6, Kebili, Tunisia. It is characterized by its rating of 4.0 out of 5, garnered from four reviews. Situated at the coordinates (33.7053164, 8.9659272), this station's services and amenities, as well as its precise location, make it a significant point of interest within the Kebili region.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3265,12 +4345,56 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>If you're in Kebili and looking for a top-rated Restaurant tunisien, check out Fast food mohedinne located at Fast food mohedinne, 4200, Kebili 4200. This must-visit spot has a rating of 4.5 and is open 24 hours a day. For more details, visit their website at https://www.google.com/maps/place/Fast+food+mohedinne/data=!4m7!3m6!1s0x12566ffd2b27f32f:0x3be4111988f6693e!8m2!3d33.7071691!4d8.971455!16s%2Fg%2F11s61dj8sr!19sChIJL_MnK_1vVhIRPmn2iBkR5Ds?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 23 587 037.</t>
+          <t>Fast food mohedinne is a Tunisian restaurant located in Kebili, Tunisia. It is open 24 hours a day and has a rating of 4.5 stars. The restaurant offers a variety of Tunisian dishes, and is located at 33.6915496, 9.0030868.</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>Where in Kebili can you find a top-rated Restaurant tunisien, which is open 24 hours a day, and has a rating of 4.5?</t>
+          <t>Day Plan:
+Morning: Visit Oasis de Kebili, a verdant oasis in the Tunisian desert.
+Mid-Morning: Explore Ancienne Kebili, an archeological site offering insights into the region's rich history.
+Midday: Enjoy a delightful dining experience at Bon Gusto, a restaurant renowned for its excellent cuisine and warm ambiance.
+Afternoon: Relax and rejuvenate at Les Amis du Camping, a charming campground offering various accommodations and a serene atmosphere.
+Evening: Savor the authentic flavors of Tunisia at Fast food mohedinne, a local restaurant serving a delectable array of traditional dishes.
+Night: Indulge in a cozy ambiance and socialize with locals and travelers at Cafe BORNI mqh~ lbrny, a popular cafe celebrated for its exceptional service and inviting atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Bon Gusto is a restaurant located in Kebili, Tunisia, offering a delightful dining experience to its customers. It is situated at the coordinates (33.7080489, 8.9715127). The restaurant has received positive reviews, earning a rating of 4.2 out of 5 based on 44 reviews. Its primary category is Restaurant.
+Cafe BORNI mqh~ lbrny is a cafe located in Kebili, Tunisia. Featuring a 5-star rating, it provides a cozy ambiance for customers to enjoy their favorite beverages and hang out with friends or colleagues. The cafe can be found at the coordinates (33.7053164, 8.9659272), making it easy for locals and visitors alike to locate.
+THE HOUSE is a tea room located at Kebili (8.9659272, 33.7053164), offering a cozy ambiance and a wide variety of teas.
+Fast food mohedinne is a Tunisian restaurant located in Kebili, Tunisia. It is open 24 hours a day and has a rating of 4.5 stars. The restaurant offers a variety of Tunisian dishes, and is located at 33.6915496, 9.0030868.
+Upfood Kebili, a fast-food restaurant located in Kebili, offers a range of quick and convenient meals. Its precise location is at 33.702780775761 latitude and 8.971607490048 longitude.
+Les Amis du Camping is a campground located in Kebili, Tunisia. It offers a range of accommodations, including bungalows and campsites, and has a 4.7-star rating on Google. The campground is located at coordinates (33.699475328016, 8.966757671246) and is open year-round.
+Nestled in the heart of the Tunisian desert, Oasis de Kebili is a verdant paradise that serves as a refuge from the surrounding arid landscapes. This agricultural oasis boasts a vibrant ecosystem, showcasing the natural beauty and resilience of the region. Its convenient location, within the city of Kebili, makes it easily accessible to those seeking respite and tranquility amidst the unforgiving terrain.
+Ancienne Kebili is an archeological site located in Kebili, Tunisia. Situated at the coordinates (33.7053164, 8.9659272), it offers visitors the opportunity to explore the rich history and culture of the region. The site boasts 3 reviews, with an average rating of 3.7 reflecting its popularity among travelers.
+Located in Kebili, Anasini Siktigimin Restorani is a highly-rated Turkish restaurant offering delicious food and a warm ambiance. The restaurant is open 24 hours a day and offers a cozy and comfortable dining experience. Whether you're craving traditional Turkish dishes or looking for a casual meal, Anasini Siktigimin Restorani is a great option.
+Pizzaria Olivier is a pizzeria located in Kebili, Tunisia. The pizzeria is open from 9:30am to 10:30pm and is closed on none. Pizzaria Olivier has a rating of 4.0 out of 5 on Google and has received 5 reviews. The pizzeria's featured image is a photo of the exterior of the building and the main category is Pizzeria. The pizzeria's website is not available. The pizzeria's owner is not available. The pizzeria's phone number is 99 102 203 and the address is PX49+65G Pizzaria Olivier, Kebili. The pizzeria's coordinates are (33.7053164, 8.9659272).
+Station Nationale Louage Kebili is a transport service located in Kebili, Tunisia. It is situated at the coordinates (33.7053164, 8.9659272) and has a 4.0 rating out of 4 reviews. The phone number for the station is 75 491 213 and its address is PX8F+QR6 Station Nationale Louage Kebili, Kebili.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3368,12 +4492,57 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>If you're in kebili and looking for something fun to do, check out Upfood kebili located at PX4C+23M Upfood kebili, Rue de la liberte, kebili. This top-rated destination is perfect for Restauration rapide lovers and offers a range of Restauration rapide to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.702780775761, 8.971607490048.</t>
+          <t>Upfood Kebili is a fast-food restaurant located in Kebili, Tunisia. It is known for its 5-star rating and its wide variety of fast-food options. The restaurant is located at the coordinates (33.702780775761, 8.971607490048), on Rue de la liberte.</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated destination in Kebili that caters to Restauration rapide lovers with its diverse menu and boasts a perfect rating?</t>
+          <t>Day Plan:
+Morning: Start the day by exploring the historical Ancienne Kebili (Archeological Site).
+Mid-Morning: Visit the Station Nationale Louage (Transport Service) to arrange for any necessary transportation.
+Midday: Savor the local flavors and highly-rated dishes at Restaurant PARADISIO.
+Afternoon: Immerse yourself in the exhibits and learn about the region's rich history at the Museum of Kebili.
+Evening: Experience the lively ambiance and delectable Turkish cuisine at Anasini Siktigimin Restorani.
+Night: End the day with a relaxing and pampering session at the Les Amis du Camping (Campground).</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant PARADISIO is a highly-rated restaurant located in Kebili with a 4.2-star rating. It is open from 9:00 AM to 10:00 PM Monday through Saturday, but is closed on Sundays. The restaurant's primary category is Restaurant and its coordinates are (49.1407729, 6.8074876).
+Nestled in the heart of Kebili, Cafe Tanit is a renowned establishment known for its delectable offerings. With an impressive rating of 4.7 out of 5, this cafe tantalizes taste buds with its diverse menu, catering to the discerning palates of patrons. Located at the coordinates (33.7053164, 8.9659272), Cafe Tanit is easily accessible and offers a warm and inviting ambiance to unwind and savor exceptional culinary creations.
+THE HOUSE is a tea room located at Kebili (8.9659272, 33.7053164), offering a cozy ambiance and a wide variety of teas.
+Fast food mohedinne is a restaurant located in Kebili, Tunisia. It offers Tunisian cuisine and is highly rated by customers, with a 4.5/5 rating from 2 reviews.
+The restaurant is open 24/7 and can be reached at 23 587 037. It is located at the following address: Fast food mohedinne, 4200, Kebili 4200.
+Upfood Kebili, a fast-food restaurant located in Kebili, offers a range of quick and convenient meals. Its precise location is at 33.702780775761 latitude and 8.971607490048 longitude.
+Les Amis du Camping is a campground located in Kebili, Tunisia. It offers a range of accommodations, including bungalows and campsites, and has a 4.7-star rating on Google. The campground is located at coordinates (33.699475328016, 8.966757671246) and is open year-round.
+Nestled in the heart of the Tunisian desert, Oasis de Kebili is a verdant paradise that serves as a refuge from the surrounding arid landscapes. This agricultural oasis boasts a vibrant ecosystem, showcasing the natural beauty and resilience of the region. Its convenient location, within the city of Kebili, makes it easily accessible to those seeking respite and tranquility amidst the unforgiving terrain.
+Ancienne Kebili is an archeological site located in Kebili, Tunisia. Situated at the coordinates (33.7053164, 8.9659272), it offers visitors the opportunity to explore the rich history and culture of the region. The site boasts 3 reviews, with an average rating of 3.7 reflecting its popularity among travelers.
+Located in Kebili, Anasini Siktigimin Restorani is a highly-rated Turkish restaurant offering delicious food and a warm ambiance. The restaurant is open 24 hours a day and offers a cozy and comfortable dining experience. Whether you're craving traditional Turkish dishes or looking for a casual meal, Anasini Siktigimin Restorani is a great option.
+Pizzaria Olivier is a pizzeria located in Kebili, Tunisia. The pizzeria is open from 9:30am to 10:30pm and is closed on none. Pizzaria Olivier has a rating of 4.0 out of 5 on Google and has received 5 reviews. The pizzeria's featured image is a photo of the exterior of the building and the main category is Pizzeria. The pizzeria's website is not available. The pizzeria's owner is not available. The pizzeria's phone number is 99 102 203 and the address is PX49+65G Pizzaria Olivier, Kebili. The pizzeria's coordinates are (33.7053164, 8.9659272).
+The Station Nationale Louage is a transport service located at PX8F+QR6, Kebili, Tunisia. It is characterized by its rating of 4.0 out of 5, garnered from four reviews. Situated at the coordinates (33.7053164, 8.9659272), this station's services and amenities, as well as its precise location, make it a significant point of interest within the Kebili region.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3475,12 +4644,57 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>If you're in kebili and looking for a reliable transportation service, Station Nationale Louage Kebili is the perfect choice for you. Located at PX8F+QR6 in Kebili, this top-rated destination offers a range of transportation services to meet your needs. With a rating of 4.0, it's a must-visit spot for anyone in need of reliable transportation. To get there, use these GPS coordinates: 33.7053164, 8.9659272. For more details, call them at 75 491 213.</t>
+          <t>Station Nationale Louage Kebili is a transport service located in Kebili, Tunisia. It is situated at the coordinates (33.7053164, 8.9659272) and has a 4.0 rating out of 4 reviews. The phone number for the station is 75 491 213 and its address is PX8F+QR6 Station Nationale Louage Kebili, Kebili.</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>Where is the highly-rated Station Nationale Louage Kebili located, conveniently offering a range of transportation services?</t>
+          <t>Day Plan:
+Morning: Explore the historical significance of Kebili by visiting Ancienne Kebili, an archeological site that showcases the region's rich heritage.
+Mid-Morning: Visit THE HOUSE, a tea room offering a relaxing ambiance and a wide selection of teas, perfect for a refreshing break amidst your explorations.
+Midday: Indulge in authentic Tunisian cuisine at Fast food mohedinne, where you can savor the traditional flavors and generous portions.
+Afternoon: Take a leisurely stroll through Oasis de Kebili, a lush agricultural oasis that provides respite from the desert landscape and showcases the region's natural beauty.
+Evening: Immerse yourself in the local culture at Anasini Siktigimin Restorani, a highly-rated Turkish restaurant that offers a warm ambiance and delicious food.
+Night: Experience the vibrant atmosphere of **mqh~ inSr**, a top-rated café known for its inviting ambiance, delicious pastries, and variety of coffees and teas.</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant Ahmed is a highly-rated restaurant located in Kebili, Tunisia. It offers a variety of dishes and has received positive reviews for its quality. The restaurant is open from 06:30 to 00:00 every day except Sunday. It is located at 33.7054307, 8.9722181.
+**mqh~ lnSr** is a top-rated cafe in Kebili, Tunisia. It offers a cozy and inviting atmosphere, as well as a delicious menu of coffees, teas, and pastries. The cafe is conveniently located at PX3C+XPQ mqh~ lnSr, Kebili, and is open from 03:00-01:00 every day of the week. With its high ratings and positive reviews, **mqh~ lnSr** is a must-visit for coffee lovers in the area.
+THE HOUSE is a tea room located at Kebili (8.9659272, 33.7053164), offering a cozy ambiance and a wide variety of teas.
+Fast food mohedinne is a restaurant located in Kebili, Tunisia. It offers Tunisian cuisine and is highly rated by customers, with a 4.5/5 rating from 2 reviews.
+The restaurant is open 24/7 and can be reached at 23 587 037. It is located at the following address: Fast food mohedinne, 4200, Kebili 4200.
+Upfood Kebili, a fast-food restaurant located in Kebili, offers a range of quick and convenient meals. Its precise location is at 33.702780775761 latitude and 8.971607490048 longitude.
+Les Amis du Camping is a campground located in Kebili, Tunisia. It offers a range of accommodations, including bungalows and campsites, and has a 4.7-star rating on Google. The campground is located at coordinates (33.699475328016, 8.966757671246) and is open year-round.
+Nestled in the heart of the Tunisian desert, Oasis de Kebili is a verdant paradise that serves as a refuge from the surrounding arid landscapes. This agricultural oasis boasts a vibrant ecosystem, showcasing the natural beauty and resilience of the region. Its convenient location, within the city of Kebili, makes it easily accessible to those seeking respite and tranquility amidst the unforgiving terrain.
+Ancienne Kebili is an archeological site located in Kebili, Tunisia. Situated at the coordinates (33.7053164, 8.9659272), it offers visitors the opportunity to explore the rich history and culture of the region. The site boasts 3 reviews, with an average rating of 3.7 reflecting its popularity among travelers.
+Located in Kebili, Anasini Siktigimin Restorani is a highly-rated Turkish restaurant offering delicious food and a warm ambiance. The restaurant is open 24 hours a day and offers a cozy and comfortable dining experience. Whether you're craving traditional Turkish dishes or looking for a casual meal, Anasini Siktigimin Restorani is a great option.
+Pizzaria Olivier is a pizzeria located in Kebili, Tunisia. The pizzeria is open from 9:30am to 10:30pm and is closed on none. Pizzaria Olivier has a rating of 4.0 out of 5 on Google and has received 5 reviews. The pizzeria's featured image is a photo of the exterior of the building and the main category is Pizzeria. The pizzeria's website is not available. The pizzeria's owner is not available. The pizzeria's phone number is 99 102 203 and the address is PX49+65G Pizzaria Olivier, Kebili. The pizzeria's coordinates are (33.7053164, 8.9659272).
+Station Nationale Louage Kebili is a transport service located in Kebili, Tunisia. It is situated at the coordinates (33.7053164, 8.9659272) and has a 4.0 rating out of 4 reviews. The phone number for the station is 75 491 213 and its address is PX8F+QR6 Station Nationale Louage Kebili, Kebili.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3582,12 +4796,57 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>If you're in kebili and looking for something related to Service de transport, check out Station Nationale Louage Kebili located at PX8F+QR6 Station Nationale Louage Kebili, Kebili. This top-rated destination is perfect for Service de transport lovers and offers a range of services to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.7053164, 8.9659272. For more details, call them at 75 491 213.</t>
+          <t>The Station Nationale Louage is a transport service located at PX8F+QR6, Kebili, Tunisia. It is characterized by its rating of 4.0 out of 5, garnered from four reviews. Situated at the coordinates (33.7053164, 8.9659272), this station's services and amenities, as well as its precise location, make it a significant point of interest within the Kebili region.</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>Where can you find a well-rated Service de transport destination with a range of services in Kebili?</t>
+          <t>Day Plan:
+Morning: Exploring the ancient ruins of Ancienne Kebili, a historical site showcasing the rich cultural heritage of the region.
+Mid-Morning: Trying local Tunisian cuisine at Fast food mohedinne, a highly-rated restaurant offering authentic flavors and a cozy ambiance.
+Midday: Visiting Oasis de Kebili, a verdant paradise amidst the arid desert landscapes, offering respite and tranquility in the heart of the Tunisian desert.
+Afternoon: Enjoying scenic views at Kebili Salt Lake, a natural wonder that captivates with its shimmering waters and unique surroundings.
+Evening: Shopping for souvenirs and local crafts at the vibrant market in Kebili, immersing in the local culture and supporting the community.
+Night: Relaxing with a traditional Hammam experience at one of the local spas, indulging in a rejuvenating and authentic cultural immersion.</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in Kebili, mT`m lhdy Hlwf@ is a restaurant with a rating of 4.7 based on 3 reviews. It opens from Tuesday to Saturday from 09:25-16:40. Its main category is Restaurant and it offers a variety of dining options. It is located at the coordinates (33.7053164, 8.9659272).
+Cafe Azur, located at MXXJ+98C Cafe Azur, C206, Kebili (lon:8.9659272, lat:33.7053164), is a cafe with a 4.4-star rating based on 7 reviews. Open from 08:00 to 23:00, Cafe Azur offers a cozy and welcoming ambiance for its customers to relax and enjoy their favorite beverages and snacks.
+THE HOUSE is a tea room located at Kebili (8.9659272, 33.7053164), offering a cozy ambiance and a wide variety of teas.
+Fast food mohedinne is a restaurant located in Kebili, Tunisia. It offers Tunisian cuisine and is highly rated by customers, with a 4.5/5 rating from 2 reviews.
+The restaurant is open 24/7 and can be reached at 23 587 037. It is located at the following address: Fast food mohedinne, 4200, Kebili 4200.
+Upfood Kebili, a fast-food restaurant located in Kebili, offers a range of quick and convenient meals. Its precise location is at 33.702780775761 latitude and 8.971607490048 longitude.
+Les Amis du Camping is a campground located in Kebili, Tunisia. It offers a range of accommodations, including bungalows and campsites, and has a 4.7-star rating on Google. The campground is located at coordinates (33.699475328016, 8.966757671246) and is open year-round.
+Nestled in the heart of the Tunisian desert, Oasis de Kebili is a verdant paradise that serves as a refuge from the surrounding arid landscapes. This agricultural oasis boasts a vibrant ecosystem, showcasing the natural beauty and resilience of the region. Its convenient location, within the city of Kebili, makes it easily accessible to those seeking respite and tranquility amidst the unforgiving terrain.
+Ancienne Kebili is an archeological site located in Kebili, Tunisia. Situated at the coordinates (33.7053164, 8.9659272), it offers visitors the opportunity to explore the rich history and culture of the region. The site boasts 3 reviews, with an average rating of 3.7 reflecting its popularity among travelers.
+Located in Kebili, Anasini Siktigimin Restorani is a highly-rated Turkish restaurant offering delicious food and a warm ambiance. The restaurant is open 24 hours a day and offers a cozy and comfortable dining experience. Whether you're craving traditional Turkish dishes or looking for a casual meal, Anasini Siktigimin Restorani is a great option.
+Pizzaria Olivier is a pizzeria located in Kebili, Tunisia. The pizzeria is open from 9:30am to 10:30pm and is closed on none. Pizzaria Olivier has a rating of 4.0 out of 5 on Google and has received 5 reviews. The pizzeria's featured image is a photo of the exterior of the building and the main category is Pizzeria. The pizzeria's website is not available. The pizzeria's owner is not available. The pizzeria's phone number is 99 102 203 and the address is PX49+65G Pizzaria Olivier, Kebili. The pizzeria's coordinates are (33.7053164, 8.9659272).
+The Station Nationale Louage is a transport service located at PX8F+QR6, Kebili, Tunisia. It is characterized by its rating of 4.0 out of 5, garnered from four reviews. Situated at the coordinates (33.7053164, 8.9659272), this station's services and amenities, as well as its precise location, make it a significant point of interest within the Kebili region.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
